--- a/backend/data/Data for 24-Aug-2023/Bank_Nifty_Data_28-Sep-2023.xlsx
+++ b/backend/data/Data for 24-Aug-2023/Bank_Nifty_Data_28-Sep-2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X37"/>
+  <dimension ref="A1:X67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,10 +561,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45162.54466435185</v>
+        <v>45162.64196759259</v>
       </c>
       <c r="B2" t="n">
-        <v>44400</v>
+        <v>44200</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -572,75 +572,75 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>566</v>
+        <v>674</v>
       </c>
       <c r="E2" t="n">
-        <v>-68</v>
+        <v>-95</v>
       </c>
       <c r="F2" t="n">
-        <v>-10.72555205047319</v>
+        <v>-12.35370611183355</v>
       </c>
       <c r="G2" t="n">
-        <v>647</v>
+        <v>1062</v>
       </c>
       <c r="H2" t="n">
-        <v>10.89</v>
+        <v>10.9</v>
       </c>
       <c r="I2" t="n">
-        <v>971.95</v>
+        <v>996.05</v>
       </c>
       <c r="J2" t="n">
-        <v>124.5</v>
+        <v>20.64999999999998</v>
       </c>
       <c r="K2" t="n">
-        <v>14.69113222018998</v>
+        <v>2.117080172237029</v>
       </c>
       <c r="L2" t="n">
-        <v>4320</v>
+        <v>5295</v>
       </c>
       <c r="M2" t="n">
-        <v>4530</v>
+        <v>5205</v>
       </c>
       <c r="N2" t="n">
-        <v>1409</v>
+        <v>2137</v>
       </c>
       <c r="O2" t="n">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="P2" t="n">
-        <v>14.27412814274128</v>
+        <v>8.147773279352228</v>
       </c>
       <c r="Q2" t="n">
-        <v>1486</v>
+        <v>2650</v>
       </c>
       <c r="R2" t="n">
-        <v>12.01</v>
+        <v>11.88</v>
       </c>
       <c r="S2" t="n">
-        <v>386.85</v>
+        <v>362.95</v>
       </c>
       <c r="T2" t="n">
-        <v>-84.54999999999995</v>
+        <v>-41.15000000000003</v>
       </c>
       <c r="U2" t="n">
-        <v>-17.9359355112431</v>
+        <v>-10.18312298935908</v>
       </c>
       <c r="V2" t="n">
-        <v>7530</v>
+        <v>10575</v>
       </c>
       <c r="W2" t="n">
-        <v>6225</v>
+        <v>8130</v>
       </c>
       <c r="X2" t="n">
-        <v>44611.4</v>
+        <v>44531.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45162.54466435185</v>
+        <v>45162.64196759259</v>
       </c>
       <c r="B3" t="n">
-        <v>44500</v>
+        <v>44300</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -648,75 +648,75 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>14945</v>
+        <v>565</v>
       </c>
       <c r="E3" t="n">
-        <v>-511</v>
+        <v>-65</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.306159420289855</v>
+        <v>-10.31746031746032</v>
       </c>
       <c r="G3" t="n">
-        <v>11325</v>
+        <v>801</v>
       </c>
       <c r="H3" t="n">
-        <v>10.99</v>
+        <v>10.85</v>
       </c>
       <c r="I3" t="n">
-        <v>913</v>
+        <v>927</v>
       </c>
       <c r="J3" t="n">
-        <v>131.15</v>
+        <v>13.14999999999998</v>
       </c>
       <c r="K3" t="n">
-        <v>16.77431732429494</v>
+        <v>1.438967007714612</v>
       </c>
       <c r="L3" t="n">
-        <v>108780</v>
+        <v>4770</v>
       </c>
       <c r="M3" t="n">
-        <v>13575</v>
+        <v>4605</v>
       </c>
       <c r="N3" t="n">
-        <v>15721</v>
+        <v>1060</v>
       </c>
       <c r="O3" t="n">
-        <v>1524</v>
+        <v>221</v>
       </c>
       <c r="P3" t="n">
-        <v>10.73466225258857</v>
+        <v>26.34088200238379</v>
       </c>
       <c r="Q3" t="n">
-        <v>20879</v>
+        <v>2664</v>
       </c>
       <c r="R3" t="n">
-        <v>11.9</v>
+        <v>11.84</v>
       </c>
       <c r="S3" t="n">
-        <v>417.5</v>
+        <v>392.6</v>
       </c>
       <c r="T3" t="n">
-        <v>-90</v>
+        <v>-44.69999999999999</v>
       </c>
       <c r="U3" t="n">
-        <v>-17.73399014778325</v>
+        <v>-10.22181568717127</v>
       </c>
       <c r="V3" t="n">
-        <v>317595</v>
+        <v>8640</v>
       </c>
       <c r="W3" t="n">
-        <v>18165</v>
+        <v>8370</v>
       </c>
       <c r="X3" t="n">
-        <v>44611.4</v>
+        <v>44531.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45162.54466435185</v>
+        <v>45162.64196759259</v>
       </c>
       <c r="B4" t="n">
-        <v>44600</v>
+        <v>44400</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -724,75 +724,75 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>594</v>
+        <v>695</v>
       </c>
       <c r="E4" t="n">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="F4" t="n">
-        <v>26.65245202558635</v>
+        <v>9.621451104100947</v>
       </c>
       <c r="G4" t="n">
-        <v>1166</v>
+        <v>1449</v>
       </c>
       <c r="H4" t="n">
-        <v>11.08</v>
+        <v>10.92</v>
       </c>
       <c r="I4" t="n">
-        <v>847</v>
+        <v>866.1</v>
       </c>
       <c r="J4" t="n">
-        <v>117.25</v>
+        <v>18.64999999999998</v>
       </c>
       <c r="K4" t="n">
-        <v>16.06714628297362</v>
+        <v>2.200719806478256</v>
       </c>
       <c r="L4" t="n">
-        <v>5805</v>
+        <v>6585</v>
       </c>
       <c r="M4" t="n">
-        <v>5775</v>
+        <v>6465</v>
       </c>
       <c r="N4" t="n">
-        <v>832</v>
+        <v>1292</v>
       </c>
       <c r="O4" t="n">
-        <v>367</v>
+        <v>59</v>
       </c>
       <c r="P4" t="n">
-        <v>78.9247311827957</v>
+        <v>4.785077047850771</v>
       </c>
       <c r="Q4" t="n">
-        <v>1596</v>
+        <v>2565</v>
       </c>
       <c r="R4" t="n">
-        <v>11.81</v>
+        <v>11.72</v>
       </c>
       <c r="S4" t="n">
-        <v>454.1</v>
+        <v>426.55</v>
       </c>
       <c r="T4" t="n">
-        <v>-94.64999999999998</v>
+        <v>-44.84999999999997</v>
       </c>
       <c r="U4" t="n">
-        <v>-17.24829157175398</v>
+        <v>-9.514212982605001</v>
       </c>
       <c r="V4" t="n">
-        <v>10845</v>
+        <v>8490</v>
       </c>
       <c r="W4" t="n">
-        <v>7470</v>
+        <v>7665</v>
       </c>
       <c r="X4" t="n">
-        <v>44611.4</v>
+        <v>44531.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45162.54466435185</v>
+        <v>45162.64196759259</v>
       </c>
       <c r="B5" t="n">
-        <v>44700</v>
+        <v>44500</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -800,75 +800,75 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>695</v>
+        <v>16889</v>
       </c>
       <c r="E5" t="n">
-        <v>-85</v>
+        <v>1433</v>
       </c>
       <c r="F5" t="n">
-        <v>-10.8974358974359</v>
+        <v>9.271480331262939</v>
       </c>
       <c r="G5" t="n">
-        <v>1490</v>
+        <v>22620</v>
       </c>
       <c r="H5" t="n">
-        <v>11.02</v>
+        <v>10.74</v>
       </c>
       <c r="I5" t="n">
-        <v>781.55</v>
+        <v>801.65</v>
       </c>
       <c r="J5" t="n">
-        <v>110.25</v>
+        <v>19.79999999999995</v>
       </c>
       <c r="K5" t="n">
-        <v>16.42335766423358</v>
+        <v>2.532455074502776</v>
       </c>
       <c r="L5" t="n">
-        <v>7455</v>
+        <v>107355</v>
       </c>
       <c r="M5" t="n">
-        <v>6960</v>
+        <v>14370</v>
       </c>
       <c r="N5" t="n">
-        <v>1409</v>
+        <v>18393</v>
       </c>
       <c r="O5" t="n">
-        <v>826</v>
+        <v>4196</v>
       </c>
       <c r="P5" t="n">
-        <v>141.6809605488851</v>
+        <v>29.55553990279637</v>
       </c>
       <c r="Q5" t="n">
-        <v>2405</v>
+        <v>36240</v>
       </c>
       <c r="R5" t="n">
-        <v>11.82</v>
+        <v>11.69</v>
       </c>
       <c r="S5" t="n">
-        <v>496.5</v>
+        <v>464.6</v>
       </c>
       <c r="T5" t="n">
-        <v>-96.20000000000005</v>
+        <v>-42.89999999999998</v>
       </c>
       <c r="U5" t="n">
-        <v>-16.23080816601992</v>
+        <v>-8.453201970443345</v>
       </c>
       <c r="V5" t="n">
-        <v>7335</v>
+        <v>318585</v>
       </c>
       <c r="W5" t="n">
-        <v>6195</v>
+        <v>13980</v>
       </c>
       <c r="X5" t="n">
-        <v>44611.4</v>
+        <v>44531.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45162.54466435185</v>
+        <v>45162.64196759259</v>
       </c>
       <c r="B6" t="n">
-        <v>44800</v>
+        <v>44600</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -876,75 +876,75 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1133</v>
+        <v>936</v>
       </c>
       <c r="E6" t="n">
-        <v>365</v>
+        <v>467</v>
       </c>
       <c r="F6" t="n">
-        <v>47.52604166666666</v>
+        <v>99.57356076759062</v>
       </c>
       <c r="G6" t="n">
-        <v>1584</v>
+        <v>2276</v>
       </c>
       <c r="H6" t="n">
-        <v>10.95</v>
+        <v>10.92</v>
       </c>
       <c r="I6" t="n">
-        <v>727.05</v>
+        <v>743</v>
       </c>
       <c r="J6" t="n">
-        <v>105.5999999999999</v>
+        <v>13.25</v>
       </c>
       <c r="K6" t="n">
-        <v>16.99251749939656</v>
+        <v>1.815690304898938</v>
       </c>
       <c r="L6" t="n">
-        <v>7890</v>
+        <v>7905</v>
       </c>
       <c r="M6" t="n">
-        <v>6960</v>
+        <v>6945</v>
       </c>
       <c r="N6" t="n">
-        <v>1328</v>
+        <v>1249</v>
       </c>
       <c r="O6" t="n">
-        <v>488</v>
+        <v>784</v>
       </c>
       <c r="P6" t="n">
-        <v>58.09523809523809</v>
+        <v>168.6021505376344</v>
       </c>
       <c r="Q6" t="n">
-        <v>2324</v>
+        <v>3612</v>
       </c>
       <c r="R6" t="n">
-        <v>11.89</v>
+        <v>11.61</v>
       </c>
       <c r="S6" t="n">
-        <v>533</v>
+        <v>504</v>
       </c>
       <c r="T6" t="n">
-        <v>-101.3</v>
+        <v>-44.75</v>
       </c>
       <c r="U6" t="n">
-        <v>-15.97036102790477</v>
+        <v>-8.15489749430524</v>
       </c>
       <c r="V6" t="n">
-        <v>8265</v>
+        <v>9510</v>
       </c>
       <c r="W6" t="n">
-        <v>7425</v>
+        <v>6660</v>
       </c>
       <c r="X6" t="n">
-        <v>44611.4</v>
+        <v>44531.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45162.54466435185</v>
+        <v>45162.64196759259</v>
       </c>
       <c r="B7" t="n">
-        <v>44900</v>
+        <v>44700</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -952,75 +952,75 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>757</v>
+        <v>998</v>
       </c>
       <c r="E7" t="n">
-        <v>115</v>
+        <v>218</v>
       </c>
       <c r="F7" t="n">
-        <v>17.91277258566978</v>
+        <v>27.94871794871795</v>
       </c>
       <c r="G7" t="n">
-        <v>1005</v>
+        <v>2181</v>
       </c>
       <c r="H7" t="n">
-        <v>10.89</v>
+        <v>10.68</v>
       </c>
       <c r="I7" t="n">
-        <v>667.9</v>
+        <v>687.55</v>
       </c>
       <c r="J7" t="n">
-        <v>96.94999999999993</v>
+        <v>16.25</v>
       </c>
       <c r="K7" t="n">
-        <v>16.98047114458357</v>
+        <v>2.420676299716967</v>
       </c>
       <c r="L7" t="n">
-        <v>6720</v>
+        <v>8055</v>
       </c>
       <c r="M7" t="n">
-        <v>4710</v>
+        <v>6495</v>
       </c>
       <c r="N7" t="n">
-        <v>691</v>
+        <v>1215</v>
       </c>
       <c r="O7" t="n">
-        <v>386</v>
+        <v>632</v>
       </c>
       <c r="P7" t="n">
-        <v>126.5573770491803</v>
+        <v>108.4048027444254</v>
       </c>
       <c r="Q7" t="n">
-        <v>1472</v>
+        <v>3627</v>
       </c>
       <c r="R7" t="n">
-        <v>11.86</v>
+        <v>11.58</v>
       </c>
       <c r="S7" t="n">
-        <v>581</v>
+        <v>545.4</v>
       </c>
       <c r="T7" t="n">
-        <v>-102</v>
+        <v>-47.30000000000007</v>
       </c>
       <c r="U7" t="n">
-        <v>-14.93411420204978</v>
+        <v>-7.980428547325808</v>
       </c>
       <c r="V7" t="n">
-        <v>8460</v>
+        <v>10575</v>
       </c>
       <c r="W7" t="n">
-        <v>6675</v>
+        <v>7650</v>
       </c>
       <c r="X7" t="n">
-        <v>44611.4</v>
+        <v>44531.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45162.5439699074</v>
+        <v>45162.64126157408</v>
       </c>
       <c r="B8" t="n">
-        <v>44400</v>
+        <v>44200</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1028,75 +1028,75 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>566</v>
+        <v>674</v>
       </c>
       <c r="E8" t="n">
-        <v>-68</v>
+        <v>-95</v>
       </c>
       <c r="F8" t="n">
-        <v>-10.72555205047319</v>
+        <v>-12.35370611183355</v>
       </c>
       <c r="G8" t="n">
-        <v>647</v>
+        <v>1062</v>
       </c>
       <c r="H8" t="n">
-        <v>11.02</v>
+        <v>10.9</v>
       </c>
       <c r="I8" t="n">
-        <v>971.95</v>
+        <v>996.05</v>
       </c>
       <c r="J8" t="n">
-        <v>124.5</v>
+        <v>20.64999999999998</v>
       </c>
       <c r="K8" t="n">
-        <v>14.69113222018998</v>
+        <v>2.117080172237029</v>
       </c>
       <c r="L8" t="n">
-        <v>4095</v>
+        <v>5295</v>
       </c>
       <c r="M8" t="n">
-        <v>4500</v>
+        <v>5205</v>
       </c>
       <c r="N8" t="n">
-        <v>1409</v>
+        <v>2137</v>
       </c>
       <c r="O8" t="n">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
-        <v>14.27412814274128</v>
+        <v>8.147773279352228</v>
       </c>
       <c r="Q8" t="n">
-        <v>1486</v>
+        <v>2650</v>
       </c>
       <c r="R8" t="n">
-        <v>11.78</v>
+        <v>11.88</v>
       </c>
       <c r="S8" t="n">
-        <v>386.85</v>
+        <v>362.95</v>
       </c>
       <c r="T8" t="n">
-        <v>-84.54999999999995</v>
+        <v>-41.15000000000003</v>
       </c>
       <c r="U8" t="n">
-        <v>-17.9359355112431</v>
+        <v>-10.18312298935908</v>
       </c>
       <c r="V8" t="n">
-        <v>6645</v>
+        <v>10575</v>
       </c>
       <c r="W8" t="n">
-        <v>6150</v>
+        <v>8130</v>
       </c>
       <c r="X8" t="n">
-        <v>44619.85</v>
+        <v>44531.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45162.5439699074</v>
+        <v>45162.64126157408</v>
       </c>
       <c r="B9" t="n">
-        <v>44500</v>
+        <v>44300</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1104,75 +1104,75 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14919</v>
+        <v>565</v>
       </c>
       <c r="E9" t="n">
-        <v>-537</v>
+        <v>-65</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.474378881987578</v>
+        <v>-10.31746031746032</v>
       </c>
       <c r="G9" t="n">
-        <v>11226</v>
+        <v>801</v>
       </c>
       <c r="H9" t="n">
-        <v>10.91</v>
+        <v>10.85</v>
       </c>
       <c r="I9" t="n">
-        <v>899.9</v>
+        <v>927</v>
       </c>
       <c r="J9" t="n">
-        <v>118.05</v>
+        <v>13.14999999999998</v>
       </c>
       <c r="K9" t="n">
-        <v>15.09880411843703</v>
+        <v>1.438967007714612</v>
       </c>
       <c r="L9" t="n">
-        <v>108510</v>
+        <v>4770</v>
       </c>
       <c r="M9" t="n">
-        <v>13305</v>
+        <v>4605</v>
       </c>
       <c r="N9" t="n">
-        <v>15737</v>
+        <v>1060</v>
       </c>
       <c r="O9" t="n">
-        <v>1540</v>
+        <v>221</v>
       </c>
       <c r="P9" t="n">
-        <v>10.84736211875748</v>
+        <v>26.34088200238379</v>
       </c>
       <c r="Q9" t="n">
-        <v>20821</v>
+        <v>2664</v>
       </c>
       <c r="R9" t="n">
-        <v>11.98</v>
+        <v>11.84</v>
       </c>
       <c r="S9" t="n">
-        <v>422.75</v>
+        <v>392.6</v>
       </c>
       <c r="T9" t="n">
-        <v>-84.75</v>
+        <v>-44.69999999999999</v>
       </c>
       <c r="U9" t="n">
-        <v>-16.69950738916256</v>
+        <v>-10.22181568717127</v>
       </c>
       <c r="V9" t="n">
-        <v>317130</v>
+        <v>8640</v>
       </c>
       <c r="W9" t="n">
-        <v>18180</v>
+        <v>8370</v>
       </c>
       <c r="X9" t="n">
-        <v>44619.85</v>
+        <v>44531.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45162.5439699074</v>
+        <v>45162.64126157408</v>
       </c>
       <c r="B10" t="n">
-        <v>44600</v>
+        <v>44400</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1180,75 +1180,75 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>584</v>
+        <v>695</v>
       </c>
       <c r="E10" t="n">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="F10" t="n">
-        <v>24.52025586353945</v>
+        <v>9.621451104100947</v>
       </c>
       <c r="G10" t="n">
-        <v>1165</v>
+        <v>1449</v>
       </c>
       <c r="H10" t="n">
-        <v>10.94</v>
+        <v>10.92</v>
       </c>
       <c r="I10" t="n">
-        <v>840</v>
+        <v>866.1</v>
       </c>
       <c r="J10" t="n">
-        <v>110.25</v>
+        <v>18.64999999999998</v>
       </c>
       <c r="K10" t="n">
-        <v>15.10791366906475</v>
+        <v>2.200719806478256</v>
       </c>
       <c r="L10" t="n">
-        <v>6030</v>
+        <v>6585</v>
       </c>
       <c r="M10" t="n">
-        <v>5685</v>
+        <v>6465</v>
       </c>
       <c r="N10" t="n">
-        <v>832</v>
+        <v>1292</v>
       </c>
       <c r="O10" t="n">
-        <v>367</v>
+        <v>59</v>
       </c>
       <c r="P10" t="n">
-        <v>78.9247311827957</v>
+        <v>4.785077047850771</v>
       </c>
       <c r="Q10" t="n">
-        <v>1570</v>
+        <v>2565</v>
       </c>
       <c r="R10" t="n">
-        <v>11.94</v>
+        <v>11.72</v>
       </c>
       <c r="S10" t="n">
-        <v>460</v>
+        <v>426.55</v>
       </c>
       <c r="T10" t="n">
-        <v>-88.75</v>
+        <v>-44.84999999999997</v>
       </c>
       <c r="U10" t="n">
-        <v>-16.17312072892939</v>
+        <v>-9.514212982605001</v>
       </c>
       <c r="V10" t="n">
-        <v>9765</v>
+        <v>8490</v>
       </c>
       <c r="W10" t="n">
-        <v>6900</v>
+        <v>7665</v>
       </c>
       <c r="X10" t="n">
-        <v>44619.85</v>
+        <v>44531.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45162.5439699074</v>
+        <v>45162.64126157408</v>
       </c>
       <c r="B11" t="n">
-        <v>44700</v>
+        <v>44500</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1256,75 +1256,75 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>695</v>
+        <v>16889</v>
       </c>
       <c r="E11" t="n">
-        <v>-85</v>
+        <v>1433</v>
       </c>
       <c r="F11" t="n">
-        <v>-10.8974358974359</v>
+        <v>9.271480331262939</v>
       </c>
       <c r="G11" t="n">
-        <v>1490</v>
+        <v>22620</v>
       </c>
       <c r="H11" t="n">
-        <v>11.13</v>
+        <v>10.74</v>
       </c>
       <c r="I11" t="n">
-        <v>781.55</v>
+        <v>801.65</v>
       </c>
       <c r="J11" t="n">
-        <v>110.25</v>
+        <v>19.79999999999995</v>
       </c>
       <c r="K11" t="n">
-        <v>16.42335766423358</v>
+        <v>2.532455074502776</v>
       </c>
       <c r="L11" t="n">
-        <v>7530</v>
+        <v>107355</v>
       </c>
       <c r="M11" t="n">
-        <v>6705</v>
+        <v>14370</v>
       </c>
       <c r="N11" t="n">
-        <v>1408</v>
+        <v>18393</v>
       </c>
       <c r="O11" t="n">
-        <v>825</v>
+        <v>4196</v>
       </c>
       <c r="P11" t="n">
-        <v>141.5094339622642</v>
+        <v>29.55553990279637</v>
       </c>
       <c r="Q11" t="n">
-        <v>2405</v>
+        <v>36240</v>
       </c>
       <c r="R11" t="n">
-        <v>11.86</v>
+        <v>11.69</v>
       </c>
       <c r="S11" t="n">
-        <v>496.5</v>
+        <v>464.6</v>
       </c>
       <c r="T11" t="n">
-        <v>-96.20000000000005</v>
+        <v>-42.89999999999998</v>
       </c>
       <c r="U11" t="n">
-        <v>-16.23080816601992</v>
+        <v>-8.453201970443345</v>
       </c>
       <c r="V11" t="n">
-        <v>6690</v>
+        <v>318585</v>
       </c>
       <c r="W11" t="n">
-        <v>6510</v>
+        <v>13980</v>
       </c>
       <c r="X11" t="n">
-        <v>44619.85</v>
+        <v>44531.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45162.5439699074</v>
+        <v>45162.64126157408</v>
       </c>
       <c r="B12" t="n">
-        <v>44800</v>
+        <v>44600</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1332,75 +1332,75 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1129</v>
+        <v>936</v>
       </c>
       <c r="E12" t="n">
-        <v>361</v>
+        <v>467</v>
       </c>
       <c r="F12" t="n">
-        <v>47.00520833333334</v>
+        <v>99.57356076759062</v>
       </c>
       <c r="G12" t="n">
-        <v>1579</v>
+        <v>2276</v>
       </c>
       <c r="H12" t="n">
-        <v>10.88</v>
+        <v>10.92</v>
       </c>
       <c r="I12" t="n">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="J12" t="n">
-        <v>99.54999999999995</v>
+        <v>13.25</v>
       </c>
       <c r="K12" t="n">
-        <v>16.01898785099364</v>
+        <v>1.815690304898938</v>
       </c>
       <c r="L12" t="n">
-        <v>6810</v>
+        <v>7905</v>
       </c>
       <c r="M12" t="n">
-        <v>5820</v>
+        <v>6945</v>
       </c>
       <c r="N12" t="n">
-        <v>1327</v>
+        <v>1249</v>
       </c>
       <c r="O12" t="n">
-        <v>487</v>
+        <v>784</v>
       </c>
       <c r="P12" t="n">
-        <v>57.97619047619047</v>
+        <v>168.6021505376344</v>
       </c>
       <c r="Q12" t="n">
-        <v>2319</v>
+        <v>3612</v>
       </c>
       <c r="R12" t="n">
-        <v>11.83</v>
+        <v>11.61</v>
       </c>
       <c r="S12" t="n">
-        <v>535</v>
+        <v>504</v>
       </c>
       <c r="T12" t="n">
-        <v>-99.29999999999995</v>
+        <v>-44.75</v>
       </c>
       <c r="U12" t="n">
-        <v>-15.6550528141258</v>
+        <v>-8.15489749430524</v>
       </c>
       <c r="V12" t="n">
-        <v>8235</v>
+        <v>9510</v>
       </c>
       <c r="W12" t="n">
-        <v>7035</v>
+        <v>6660</v>
       </c>
       <c r="X12" t="n">
-        <v>44619.85</v>
+        <v>44531.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45162.5439699074</v>
+        <v>45162.64126157408</v>
       </c>
       <c r="B13" t="n">
-        <v>44900</v>
+        <v>44700</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1408,75 +1408,75 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>765</v>
+        <v>998</v>
       </c>
       <c r="E13" t="n">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c r="F13" t="n">
-        <v>19.1588785046729</v>
+        <v>27.94871794871795</v>
       </c>
       <c r="G13" t="n">
-        <v>1004</v>
+        <v>2181</v>
       </c>
       <c r="H13" t="n">
-        <v>10.84</v>
+        <v>10.68</v>
       </c>
       <c r="I13" t="n">
-        <v>673.8</v>
+        <v>687.55</v>
       </c>
       <c r="J13" t="n">
-        <v>102.8499999999999</v>
+        <v>16.25</v>
       </c>
       <c r="K13" t="n">
-        <v>18.01383658814255</v>
+        <v>2.420676299716967</v>
       </c>
       <c r="L13" t="n">
-        <v>5520</v>
+        <v>8055</v>
       </c>
       <c r="M13" t="n">
-        <v>5520</v>
+        <v>6495</v>
       </c>
       <c r="N13" t="n">
-        <v>688</v>
+        <v>1215</v>
       </c>
       <c r="O13" t="n">
-        <v>383</v>
+        <v>632</v>
       </c>
       <c r="P13" t="n">
-        <v>125.5737704918033</v>
+        <v>108.4048027444254</v>
       </c>
       <c r="Q13" t="n">
-        <v>1472</v>
+        <v>3627</v>
       </c>
       <c r="R13" t="n">
-        <v>11.76</v>
+        <v>11.58</v>
       </c>
       <c r="S13" t="n">
-        <v>581</v>
+        <v>545.4</v>
       </c>
       <c r="T13" t="n">
-        <v>-102</v>
+        <v>-47.30000000000007</v>
       </c>
       <c r="U13" t="n">
-        <v>-14.93411420204978</v>
+        <v>-7.980428547325808</v>
       </c>
       <c r="V13" t="n">
-        <v>8745</v>
+        <v>10575</v>
       </c>
       <c r="W13" t="n">
-        <v>6375</v>
+        <v>7650</v>
       </c>
       <c r="X13" t="n">
-        <v>44619.85</v>
+        <v>44531.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45162.54327546297</v>
+        <v>45162.6405787037</v>
       </c>
       <c r="B14" t="n">
-        <v>44400</v>
+        <v>44300</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1484,75 +1484,75 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="E14" t="n">
-        <v>-68</v>
+        <v>-73</v>
       </c>
       <c r="F14" t="n">
-        <v>-10.72555205047319</v>
+        <v>-11.58730158730159</v>
       </c>
       <c r="G14" t="n">
-        <v>647</v>
+        <v>801</v>
       </c>
       <c r="H14" t="n">
-        <v>11.02</v>
+        <v>10.1</v>
       </c>
       <c r="I14" t="n">
-        <v>971.95</v>
+        <v>927</v>
       </c>
       <c r="J14" t="n">
-        <v>124.5</v>
+        <v>13.14999999999998</v>
       </c>
       <c r="K14" t="n">
-        <v>14.69113222018998</v>
+        <v>1.438967007714612</v>
       </c>
       <c r="L14" t="n">
-        <v>4500</v>
+        <v>4770</v>
       </c>
       <c r="M14" t="n">
-        <v>5100</v>
+        <v>4605</v>
       </c>
       <c r="N14" t="n">
-        <v>1409</v>
+        <v>1060</v>
       </c>
       <c r="O14" t="n">
-        <v>176</v>
+        <v>221</v>
       </c>
       <c r="P14" t="n">
-        <v>14.27412814274128</v>
+        <v>26.34088200238379</v>
       </c>
       <c r="Q14" t="n">
-        <v>1486</v>
+        <v>2659</v>
       </c>
       <c r="R14" t="n">
-        <v>11.78</v>
+        <v>12.02</v>
       </c>
       <c r="S14" t="n">
-        <v>386.85</v>
+        <v>393</v>
       </c>
       <c r="T14" t="n">
-        <v>-84.54999999999995</v>
+        <v>-44.30000000000001</v>
       </c>
       <c r="U14" t="n">
-        <v>-17.9359355112431</v>
+        <v>-10.1303453007089</v>
       </c>
       <c r="V14" t="n">
-        <v>7230</v>
+        <v>8460</v>
       </c>
       <c r="W14" t="n">
-        <v>6630</v>
+        <v>8460</v>
       </c>
       <c r="X14" t="n">
-        <v>44619.85</v>
+        <v>44457.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45162.54327546297</v>
+        <v>45162.6405787037</v>
       </c>
       <c r="B15" t="n">
-        <v>44500</v>
+        <v>44400</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1560,75 +1560,75 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>14919</v>
+        <v>695</v>
       </c>
       <c r="E15" t="n">
-        <v>-537</v>
+        <v>61</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.474378881987578</v>
+        <v>9.621451104100947</v>
       </c>
       <c r="G15" t="n">
-        <v>11056</v>
+        <v>1165</v>
       </c>
       <c r="H15" t="n">
-        <v>10.91</v>
+        <v>10.25</v>
       </c>
       <c r="I15" t="n">
-        <v>915.6</v>
+        <v>860.15</v>
       </c>
       <c r="J15" t="n">
-        <v>133.75</v>
+        <v>12.69999999999993</v>
       </c>
       <c r="K15" t="n">
-        <v>17.10686193003773</v>
+        <v>1.498613487521379</v>
       </c>
       <c r="L15" t="n">
-        <v>108135</v>
+        <v>6135</v>
       </c>
       <c r="M15" t="n">
-        <v>12000</v>
+        <v>6510</v>
       </c>
       <c r="N15" t="n">
-        <v>15737</v>
+        <v>1299</v>
       </c>
       <c r="O15" t="n">
-        <v>1540</v>
+        <v>66</v>
       </c>
       <c r="P15" t="n">
-        <v>10.84736211875748</v>
+        <v>5.35279805352798</v>
       </c>
       <c r="Q15" t="n">
-        <v>20677</v>
+        <v>2565</v>
       </c>
       <c r="R15" t="n">
-        <v>11.98</v>
+        <v>12.01</v>
       </c>
       <c r="S15" t="n">
-        <v>420</v>
+        <v>426.55</v>
       </c>
       <c r="T15" t="n">
-        <v>-87.5</v>
+        <v>-44.84999999999997</v>
       </c>
       <c r="U15" t="n">
-        <v>-17.24137931034483</v>
+        <v>-9.514212982605001</v>
       </c>
       <c r="V15" t="n">
-        <v>317385</v>
+        <v>8325</v>
       </c>
       <c r="W15" t="n">
-        <v>17235</v>
+        <v>7530</v>
       </c>
       <c r="X15" t="n">
-        <v>44609.95</v>
+        <v>44457.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45162.54327546297</v>
+        <v>45162.6405787037</v>
       </c>
       <c r="B16" t="n">
-        <v>44600</v>
+        <v>44500</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1636,75 +1636,75 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>575</v>
+        <v>16889</v>
       </c>
       <c r="E16" t="n">
-        <v>106</v>
+        <v>1433</v>
       </c>
       <c r="F16" t="n">
-        <v>22.60127931769723</v>
+        <v>9.271480331262939</v>
       </c>
       <c r="G16" t="n">
-        <v>1162</v>
+        <v>22386</v>
       </c>
       <c r="H16" t="n">
-        <v>10.94</v>
+        <v>10.1</v>
       </c>
       <c r="I16" t="n">
-        <v>860</v>
+        <v>800.2</v>
       </c>
       <c r="J16" t="n">
-        <v>130.25</v>
+        <v>18.35000000000002</v>
       </c>
       <c r="K16" t="n">
-        <v>17.84857828023296</v>
+        <v>2.34699750591546</v>
       </c>
       <c r="L16" t="n">
-        <v>6030</v>
+        <v>107640</v>
       </c>
       <c r="M16" t="n">
-        <v>6300</v>
+        <v>14415</v>
       </c>
       <c r="N16" t="n">
-        <v>832</v>
+        <v>18393</v>
       </c>
       <c r="O16" t="n">
-        <v>367</v>
+        <v>4196</v>
       </c>
       <c r="P16" t="n">
-        <v>78.9247311827957</v>
+        <v>29.55553990279637</v>
       </c>
       <c r="Q16" t="n">
-        <v>1569</v>
+        <v>36173</v>
       </c>
       <c r="R16" t="n">
-        <v>11.94</v>
+        <v>12.05</v>
       </c>
       <c r="S16" t="n">
-        <v>454.15</v>
+        <v>462.95</v>
       </c>
       <c r="T16" t="n">
-        <v>-94.60000000000002</v>
+        <v>-44.55000000000001</v>
       </c>
       <c r="U16" t="n">
-        <v>-17.23917995444192</v>
+        <v>-8.778325123152712</v>
       </c>
       <c r="V16" t="n">
-        <v>11295</v>
+        <v>318420</v>
       </c>
       <c r="W16" t="n">
-        <v>7380</v>
+        <v>14130</v>
       </c>
       <c r="X16" t="n">
-        <v>44619.85</v>
+        <v>44457.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45162.54327546297</v>
+        <v>45162.6405787037</v>
       </c>
       <c r="B17" t="n">
-        <v>44700</v>
+        <v>44600</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1712,75 +1712,75 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>695</v>
+        <v>935</v>
       </c>
       <c r="E17" t="n">
-        <v>-85</v>
+        <v>466</v>
       </c>
       <c r="F17" t="n">
-        <v>-10.8974358974359</v>
+        <v>99.36034115138592</v>
       </c>
       <c r="G17" t="n">
-        <v>1490</v>
+        <v>2254</v>
       </c>
       <c r="H17" t="n">
-        <v>11.13</v>
+        <v>10.17</v>
       </c>
       <c r="I17" t="n">
-        <v>781.55</v>
+        <v>749.85</v>
       </c>
       <c r="J17" t="n">
-        <v>110.25</v>
+        <v>20.10000000000002</v>
       </c>
       <c r="K17" t="n">
-        <v>16.42335766423358</v>
+        <v>2.754367934224053</v>
       </c>
       <c r="L17" t="n">
-        <v>7290</v>
+        <v>7485</v>
       </c>
       <c r="M17" t="n">
-        <v>6900</v>
+        <v>6930</v>
       </c>
       <c r="N17" t="n">
-        <v>1408</v>
+        <v>1249</v>
       </c>
       <c r="O17" t="n">
-        <v>825</v>
+        <v>784</v>
       </c>
       <c r="P17" t="n">
-        <v>141.5094339622642</v>
+        <v>168.6021505376344</v>
       </c>
       <c r="Q17" t="n">
-        <v>2400</v>
+        <v>3565</v>
       </c>
       <c r="R17" t="n">
-        <v>11.86</v>
+        <v>11.96</v>
       </c>
       <c r="S17" t="n">
-        <v>490.45</v>
+        <v>500.5</v>
       </c>
       <c r="T17" t="n">
-        <v>-102.2500000000001</v>
+        <v>-48.25</v>
       </c>
       <c r="U17" t="n">
-        <v>-17.25156065463135</v>
+        <v>-8.792710706150341</v>
       </c>
       <c r="V17" t="n">
-        <v>7710</v>
+        <v>9765</v>
       </c>
       <c r="W17" t="n">
-        <v>6180</v>
+        <v>6450</v>
       </c>
       <c r="X17" t="n">
-        <v>44609.95</v>
+        <v>44457.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45162.54327546297</v>
+        <v>45162.6405787037</v>
       </c>
       <c r="B18" t="n">
-        <v>44800</v>
+        <v>44700</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1788,75 +1788,75 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1129</v>
+        <v>979</v>
       </c>
       <c r="E18" t="n">
-        <v>361</v>
+        <v>199</v>
       </c>
       <c r="F18" t="n">
-        <v>47.00520833333334</v>
+        <v>25.51282051282051</v>
       </c>
       <c r="G18" t="n">
-        <v>1573</v>
+        <v>2112</v>
       </c>
       <c r="H18" t="n">
-        <v>10.88</v>
+        <v>10.23</v>
       </c>
       <c r="I18" t="n">
-        <v>733.8</v>
+        <v>682</v>
       </c>
       <c r="J18" t="n">
-        <v>112.3499999999999</v>
+        <v>10.70000000000005</v>
       </c>
       <c r="K18" t="n">
-        <v>18.07868694182957</v>
+        <v>1.593922240429025</v>
       </c>
       <c r="L18" t="n">
-        <v>6555</v>
+        <v>7635</v>
       </c>
       <c r="M18" t="n">
-        <v>6240</v>
+        <v>5370</v>
       </c>
       <c r="N18" t="n">
-        <v>1331</v>
+        <v>1215</v>
       </c>
       <c r="O18" t="n">
-        <v>491</v>
+        <v>632</v>
       </c>
       <c r="P18" t="n">
-        <v>58.45238095238095</v>
+        <v>108.4048027444254</v>
       </c>
       <c r="Q18" t="n">
-        <v>2314</v>
+        <v>3569</v>
       </c>
       <c r="R18" t="n">
-        <v>11.83</v>
+        <v>11.94</v>
       </c>
       <c r="S18" t="n">
-        <v>532.9</v>
+        <v>544.45</v>
       </c>
       <c r="T18" t="n">
-        <v>-101.4</v>
+        <v>-48.25</v>
       </c>
       <c r="U18" t="n">
-        <v>-15.98612643859372</v>
+        <v>-8.140711995950733</v>
       </c>
       <c r="V18" t="n">
-        <v>7245</v>
+        <v>11490</v>
       </c>
       <c r="W18" t="n">
-        <v>5700</v>
+        <v>7470</v>
       </c>
       <c r="X18" t="n">
-        <v>44609.95</v>
+        <v>44457.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45162.54327546297</v>
+        <v>45162.6405787037</v>
       </c>
       <c r="B19" t="n">
-        <v>44900</v>
+        <v>44800</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1864,75 +1864,75 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>765</v>
+        <v>1247</v>
       </c>
       <c r="E19" t="n">
-        <v>123</v>
+        <v>479</v>
       </c>
       <c r="F19" t="n">
-        <v>19.1588785046729</v>
+        <v>62.36979166666666</v>
       </c>
       <c r="G19" t="n">
-        <v>1003</v>
+        <v>2538</v>
       </c>
       <c r="H19" t="n">
-        <v>10.84</v>
+        <v>10.18</v>
       </c>
       <c r="I19" t="n">
-        <v>676.2</v>
+        <v>631</v>
       </c>
       <c r="J19" t="n">
-        <v>105.25</v>
+        <v>9.549999999999955</v>
       </c>
       <c r="K19" t="n">
-        <v>18.43418863298012</v>
+        <v>1.536728618553376</v>
       </c>
       <c r="L19" t="n">
-        <v>6195</v>
+        <v>8775</v>
       </c>
       <c r="M19" t="n">
-        <v>5970</v>
+        <v>7215</v>
       </c>
       <c r="N19" t="n">
-        <v>688</v>
+        <v>1603</v>
       </c>
       <c r="O19" t="n">
-        <v>383</v>
+        <v>763</v>
       </c>
       <c r="P19" t="n">
-        <v>125.5737704918033</v>
+        <v>90.83333333333333</v>
       </c>
       <c r="Q19" t="n">
-        <v>1466</v>
+        <v>3178</v>
       </c>
       <c r="R19" t="n">
-        <v>11.76</v>
+        <v>11.83</v>
       </c>
       <c r="S19" t="n">
-        <v>581</v>
+        <v>591.75</v>
       </c>
       <c r="T19" t="n">
-        <v>-102</v>
+        <v>-42.54999999999995</v>
       </c>
       <c r="U19" t="n">
-        <v>-14.93411420204978</v>
+        <v>-6.708182248147558</v>
       </c>
       <c r="V19" t="n">
-        <v>8895</v>
+        <v>9930</v>
       </c>
       <c r="W19" t="n">
-        <v>6435</v>
+        <v>6765</v>
       </c>
       <c r="X19" t="n">
-        <v>44609.95</v>
+        <v>44457.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45162.54256944444</v>
+        <v>45162.64009259259</v>
       </c>
       <c r="B20" t="n">
-        <v>44400</v>
+        <v>44300</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1940,75 +1940,75 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="E20" t="n">
-        <v>-68</v>
+        <v>-73</v>
       </c>
       <c r="F20" t="n">
-        <v>-10.72555205047319</v>
+        <v>-11.58730158730159</v>
       </c>
       <c r="G20" t="n">
-        <v>647</v>
+        <v>801</v>
       </c>
       <c r="H20" t="n">
-        <v>11.02</v>
+        <v>10.1</v>
       </c>
       <c r="I20" t="n">
-        <v>971.95</v>
+        <v>927</v>
       </c>
       <c r="J20" t="n">
-        <v>124.5</v>
+        <v>13.14999999999998</v>
       </c>
       <c r="K20" t="n">
-        <v>14.69113222018998</v>
+        <v>1.438967007714612</v>
       </c>
       <c r="L20" t="n">
-        <v>4500</v>
+        <v>4770</v>
       </c>
       <c r="M20" t="n">
-        <v>5100</v>
+        <v>4605</v>
       </c>
       <c r="N20" t="n">
-        <v>1409</v>
+        <v>1064</v>
       </c>
       <c r="O20" t="n">
-        <v>176</v>
+        <v>225</v>
       </c>
       <c r="P20" t="n">
-        <v>14.27412814274128</v>
+        <v>26.81764004767581</v>
       </c>
       <c r="Q20" t="n">
-        <v>1486</v>
+        <v>2567</v>
       </c>
       <c r="R20" t="n">
-        <v>11.78</v>
+        <v>12.02</v>
       </c>
       <c r="S20" t="n">
-        <v>386.85</v>
+        <v>395</v>
       </c>
       <c r="T20" t="n">
-        <v>-84.54999999999995</v>
+        <v>-42.30000000000001</v>
       </c>
       <c r="U20" t="n">
-        <v>-17.9359355112431</v>
+        <v>-9.672993368396984</v>
       </c>
       <c r="V20" t="n">
-        <v>7230</v>
+        <v>7455</v>
       </c>
       <c r="W20" t="n">
-        <v>6630</v>
+        <v>8970</v>
       </c>
       <c r="X20" t="n">
-        <v>44619.85</v>
+        <v>44468.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45162.54256944444</v>
+        <v>45162.64009259259</v>
       </c>
       <c r="B21" t="n">
-        <v>44500</v>
+        <v>44400</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2016,75 +2016,75 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>14919</v>
+        <v>696</v>
       </c>
       <c r="E21" t="n">
-        <v>-537</v>
+        <v>62</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.474378881987578</v>
+        <v>9.779179810725552</v>
       </c>
       <c r="G21" t="n">
-        <v>11056</v>
+        <v>1159</v>
       </c>
       <c r="H21" t="n">
-        <v>10.91</v>
+        <v>10.25</v>
       </c>
       <c r="I21" t="n">
-        <v>915.6</v>
+        <v>867.85</v>
       </c>
       <c r="J21" t="n">
-        <v>133.75</v>
+        <v>20.39999999999998</v>
       </c>
       <c r="K21" t="n">
-        <v>17.10686193003773</v>
+        <v>2.407221664994982</v>
       </c>
       <c r="L21" t="n">
-        <v>108135</v>
+        <v>4845</v>
       </c>
       <c r="M21" t="n">
-        <v>12000</v>
+        <v>5190</v>
       </c>
       <c r="N21" t="n">
-        <v>15737</v>
+        <v>1299</v>
       </c>
       <c r="O21" t="n">
-        <v>1540</v>
+        <v>66</v>
       </c>
       <c r="P21" t="n">
-        <v>10.84736211875748</v>
+        <v>5.35279805352798</v>
       </c>
       <c r="Q21" t="n">
-        <v>20677</v>
+        <v>2232</v>
       </c>
       <c r="R21" t="n">
-        <v>11.98</v>
+        <v>12.01</v>
       </c>
       <c r="S21" t="n">
-        <v>420</v>
+        <v>427.9</v>
       </c>
       <c r="T21" t="n">
-        <v>-87.5</v>
+        <v>-43.5</v>
       </c>
       <c r="U21" t="n">
-        <v>-17.24137931034483</v>
+        <v>-9.227831989817565</v>
       </c>
       <c r="V21" t="n">
-        <v>317385</v>
+        <v>8295</v>
       </c>
       <c r="W21" t="n">
-        <v>17235</v>
+        <v>7350</v>
       </c>
       <c r="X21" t="n">
-        <v>44609.95</v>
+        <v>44468.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45162.54256944444</v>
+        <v>45162.64009259259</v>
       </c>
       <c r="B22" t="n">
-        <v>44600</v>
+        <v>44500</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2092,75 +2092,75 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>575</v>
+        <v>16974</v>
       </c>
       <c r="E22" t="n">
-        <v>106</v>
+        <v>1518</v>
       </c>
       <c r="F22" t="n">
-        <v>22.60127931769723</v>
+        <v>9.821428571428571</v>
       </c>
       <c r="G22" t="n">
-        <v>1162</v>
+        <v>22189</v>
       </c>
       <c r="H22" t="n">
-        <v>10.94</v>
+        <v>10.1</v>
       </c>
       <c r="I22" t="n">
-        <v>860</v>
+        <v>798</v>
       </c>
       <c r="J22" t="n">
-        <v>130.25</v>
+        <v>16.14999999999998</v>
       </c>
       <c r="K22" t="n">
-        <v>17.84857828023296</v>
+        <v>2.065613608748478</v>
       </c>
       <c r="L22" t="n">
-        <v>6030</v>
+        <v>107685</v>
       </c>
       <c r="M22" t="n">
-        <v>6300</v>
+        <v>13890</v>
       </c>
       <c r="N22" t="n">
-        <v>832</v>
+        <v>18545</v>
       </c>
       <c r="O22" t="n">
-        <v>367</v>
+        <v>4348</v>
       </c>
       <c r="P22" t="n">
-        <v>78.9247311827957</v>
+        <v>30.626188631401</v>
       </c>
       <c r="Q22" t="n">
-        <v>1569</v>
+        <v>35687</v>
       </c>
       <c r="R22" t="n">
-        <v>11.94</v>
+        <v>12.05</v>
       </c>
       <c r="S22" t="n">
-        <v>454.15</v>
+        <v>466.15</v>
       </c>
       <c r="T22" t="n">
-        <v>-94.60000000000002</v>
+        <v>-41.35000000000002</v>
       </c>
       <c r="U22" t="n">
-        <v>-17.23917995444192</v>
+        <v>-8.147783251231532</v>
       </c>
       <c r="V22" t="n">
-        <v>11295</v>
+        <v>317160</v>
       </c>
       <c r="W22" t="n">
-        <v>7380</v>
+        <v>11625</v>
       </c>
       <c r="X22" t="n">
-        <v>44619.85</v>
+        <v>44468.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45162.54256944444</v>
+        <v>45162.64009259259</v>
       </c>
       <c r="B23" t="n">
-        <v>44700</v>
+        <v>44600</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2168,75 +2168,75 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>695</v>
+        <v>935</v>
       </c>
       <c r="E23" t="n">
-        <v>-85</v>
+        <v>466</v>
       </c>
       <c r="F23" t="n">
-        <v>-10.8974358974359</v>
+        <v>99.36034115138592</v>
       </c>
       <c r="G23" t="n">
-        <v>1490</v>
+        <v>2254</v>
       </c>
       <c r="H23" t="n">
-        <v>11.13</v>
+        <v>10.17</v>
       </c>
       <c r="I23" t="n">
-        <v>781.55</v>
+        <v>749.85</v>
       </c>
       <c r="J23" t="n">
-        <v>110.25</v>
+        <v>20.10000000000002</v>
       </c>
       <c r="K23" t="n">
-        <v>16.42335766423358</v>
+        <v>2.754367934224053</v>
       </c>
       <c r="L23" t="n">
-        <v>7290</v>
+        <v>7485</v>
       </c>
       <c r="M23" t="n">
-        <v>6900</v>
+        <v>6930</v>
       </c>
       <c r="N23" t="n">
-        <v>1408</v>
+        <v>1283</v>
       </c>
       <c r="O23" t="n">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="P23" t="n">
-        <v>141.5094339622642</v>
+        <v>175.9139784946236</v>
       </c>
       <c r="Q23" t="n">
-        <v>2400</v>
+        <v>3539</v>
       </c>
       <c r="R23" t="n">
-        <v>11.86</v>
+        <v>11.96</v>
       </c>
       <c r="S23" t="n">
-        <v>490.45</v>
+        <v>503.85</v>
       </c>
       <c r="T23" t="n">
-        <v>-102.2500000000001</v>
+        <v>-44.89999999999998</v>
       </c>
       <c r="U23" t="n">
-        <v>-17.25156065463135</v>
+        <v>-8.182232346241454</v>
       </c>
       <c r="V23" t="n">
-        <v>7710</v>
+        <v>9195</v>
       </c>
       <c r="W23" t="n">
-        <v>6180</v>
+        <v>6285</v>
       </c>
       <c r="X23" t="n">
-        <v>44609.95</v>
+        <v>44468.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45162.54256944444</v>
+        <v>45162.64009259259</v>
       </c>
       <c r="B24" t="n">
-        <v>44800</v>
+        <v>44700</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -2244,75 +2244,75 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1129</v>
+        <v>979</v>
       </c>
       <c r="E24" t="n">
-        <v>361</v>
+        <v>199</v>
       </c>
       <c r="F24" t="n">
-        <v>47.00520833333334</v>
+        <v>25.51282051282051</v>
       </c>
       <c r="G24" t="n">
-        <v>1573</v>
+        <v>2112</v>
       </c>
       <c r="H24" t="n">
-        <v>10.88</v>
+        <v>10.23</v>
       </c>
       <c r="I24" t="n">
-        <v>733.8</v>
+        <v>682</v>
       </c>
       <c r="J24" t="n">
-        <v>112.3499999999999</v>
+        <v>10.70000000000005</v>
       </c>
       <c r="K24" t="n">
-        <v>18.07868694182957</v>
+        <v>1.593922240429025</v>
       </c>
       <c r="L24" t="n">
-        <v>6555</v>
+        <v>7635</v>
       </c>
       <c r="M24" t="n">
-        <v>6240</v>
+        <v>5370</v>
       </c>
       <c r="N24" t="n">
-        <v>1331</v>
+        <v>1215</v>
       </c>
       <c r="O24" t="n">
-        <v>491</v>
+        <v>632</v>
       </c>
       <c r="P24" t="n">
-        <v>58.45238095238095</v>
+        <v>108.4048027444254</v>
       </c>
       <c r="Q24" t="n">
-        <v>2314</v>
+        <v>3537</v>
       </c>
       <c r="R24" t="n">
-        <v>11.83</v>
+        <v>11.94</v>
       </c>
       <c r="S24" t="n">
-        <v>532.9</v>
+        <v>546.7</v>
       </c>
       <c r="T24" t="n">
-        <v>-101.4</v>
+        <v>-46</v>
       </c>
       <c r="U24" t="n">
-        <v>-15.98612643859372</v>
+        <v>-7.761093301839041</v>
       </c>
       <c r="V24" t="n">
-        <v>7245</v>
+        <v>10785</v>
       </c>
       <c r="W24" t="n">
-        <v>5700</v>
+        <v>7005</v>
       </c>
       <c r="X24" t="n">
-        <v>44609.95</v>
+        <v>44457.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45162.54256944444</v>
+        <v>45162.64009259259</v>
       </c>
       <c r="B25" t="n">
-        <v>44900</v>
+        <v>44800</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -2320,75 +2320,75 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>765</v>
+        <v>1247</v>
       </c>
       <c r="E25" t="n">
-        <v>123</v>
+        <v>479</v>
       </c>
       <c r="F25" t="n">
-        <v>19.1588785046729</v>
+        <v>62.36979166666666</v>
       </c>
       <c r="G25" t="n">
-        <v>1003</v>
+        <v>2491</v>
       </c>
       <c r="H25" t="n">
-        <v>10.84</v>
+        <v>10.18</v>
       </c>
       <c r="I25" t="n">
-        <v>676.2</v>
+        <v>625</v>
       </c>
       <c r="J25" t="n">
-        <v>105.25</v>
+        <v>3.549999999999955</v>
       </c>
       <c r="K25" t="n">
-        <v>18.43418863298012</v>
+        <v>0.5712446697240251</v>
       </c>
       <c r="L25" t="n">
-        <v>6195</v>
+        <v>8520</v>
       </c>
       <c r="M25" t="n">
-        <v>5970</v>
+        <v>5985</v>
       </c>
       <c r="N25" t="n">
-        <v>688</v>
+        <v>1603</v>
       </c>
       <c r="O25" t="n">
-        <v>383</v>
+        <v>763</v>
       </c>
       <c r="P25" t="n">
-        <v>125.5737704918033</v>
+        <v>90.83333333333333</v>
       </c>
       <c r="Q25" t="n">
-        <v>1466</v>
+        <v>3178</v>
       </c>
       <c r="R25" t="n">
-        <v>11.76</v>
+        <v>11.83</v>
       </c>
       <c r="S25" t="n">
-        <v>581</v>
+        <v>591.75</v>
       </c>
       <c r="T25" t="n">
-        <v>-102</v>
+        <v>-42.54999999999995</v>
       </c>
       <c r="U25" t="n">
-        <v>-14.93411420204978</v>
+        <v>-6.708182248147558</v>
       </c>
       <c r="V25" t="n">
-        <v>8895</v>
+        <v>9930</v>
       </c>
       <c r="W25" t="n">
-        <v>6435</v>
+        <v>6765</v>
       </c>
       <c r="X25" t="n">
-        <v>44609.95</v>
+        <v>44468.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45162.54188657407</v>
+        <v>45162.63929398148</v>
       </c>
       <c r="B26" t="n">
-        <v>44400</v>
+        <v>44200</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -2396,75 +2396,75 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>566</v>
+        <v>670</v>
       </c>
       <c r="E26" t="n">
-        <v>-68</v>
+        <v>-99</v>
       </c>
       <c r="F26" t="n">
-        <v>-10.72555205047319</v>
+        <v>-12.87386215864759</v>
       </c>
       <c r="G26" t="n">
-        <v>647</v>
+        <v>1001</v>
       </c>
       <c r="H26" t="n">
-        <v>11.02</v>
+        <v>10.17</v>
       </c>
       <c r="I26" t="n">
-        <v>971.95</v>
+        <v>994.45</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5</v>
+        <v>19.05000000000007</v>
       </c>
       <c r="K26" t="n">
-        <v>14.69113222018998</v>
+        <v>1.953044904654508</v>
       </c>
       <c r="L26" t="n">
-        <v>4545</v>
+        <v>4965</v>
       </c>
       <c r="M26" t="n">
-        <v>4530</v>
+        <v>4770</v>
       </c>
       <c r="N26" t="n">
-        <v>1408</v>
+        <v>2141</v>
       </c>
       <c r="O26" t="n">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="P26" t="n">
-        <v>14.19302514193025</v>
+        <v>8.350202429149798</v>
       </c>
       <c r="Q26" t="n">
-        <v>1484</v>
+        <v>2542</v>
       </c>
       <c r="R26" t="n">
-        <v>11.78</v>
+        <v>12.16</v>
       </c>
       <c r="S26" t="n">
-        <v>385</v>
+        <v>363.55</v>
       </c>
       <c r="T26" t="n">
-        <v>-86.39999999999998</v>
+        <v>-40.55000000000001</v>
       </c>
       <c r="U26" t="n">
-        <v>-18.32838353839626</v>
+        <v>-10.03464488987875</v>
       </c>
       <c r="V26" t="n">
-        <v>7095</v>
+        <v>9945</v>
       </c>
       <c r="W26" t="n">
-        <v>6180</v>
+        <v>7680</v>
       </c>
       <c r="X26" t="n">
-        <v>44609.95</v>
+        <v>44468.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45162.54188657407</v>
+        <v>45162.63929398148</v>
       </c>
       <c r="B27" t="n">
-        <v>44500</v>
+        <v>44300</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -2472,75 +2472,75 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>14919</v>
+        <v>557</v>
       </c>
       <c r="E27" t="n">
-        <v>-537</v>
+        <v>-73</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.474378881987578</v>
+        <v>-11.58730158730159</v>
       </c>
       <c r="G27" t="n">
-        <v>10943</v>
+        <v>801</v>
       </c>
       <c r="H27" t="n">
-        <v>10.91</v>
+        <v>10.1</v>
       </c>
       <c r="I27" t="n">
-        <v>915</v>
+        <v>927</v>
       </c>
       <c r="J27" t="n">
-        <v>133.15</v>
+        <v>13.14999999999998</v>
       </c>
       <c r="K27" t="n">
-        <v>17.03012086717401</v>
+        <v>1.438967007714612</v>
       </c>
       <c r="L27" t="n">
-        <v>108015</v>
+        <v>4770</v>
       </c>
       <c r="M27" t="n">
-        <v>13080</v>
+        <v>4605</v>
       </c>
       <c r="N27" t="n">
-        <v>15737</v>
+        <v>1064</v>
       </c>
       <c r="O27" t="n">
-        <v>1540</v>
+        <v>225</v>
       </c>
       <c r="P27" t="n">
-        <v>10.84736211875748</v>
+        <v>26.81764004767581</v>
       </c>
       <c r="Q27" t="n">
-        <v>20540</v>
+        <v>2563</v>
       </c>
       <c r="R27" t="n">
-        <v>11.98</v>
+        <v>12.02</v>
       </c>
       <c r="S27" t="n">
-        <v>415.6</v>
+        <v>395.3</v>
       </c>
       <c r="T27" t="n">
-        <v>-91.89999999999998</v>
+        <v>-42</v>
       </c>
       <c r="U27" t="n">
-        <v>-18.10837438423645</v>
+        <v>-9.604390578550195</v>
       </c>
       <c r="V27" t="n">
-        <v>317130</v>
+        <v>8160</v>
       </c>
       <c r="W27" t="n">
-        <v>18000</v>
+        <v>8280</v>
       </c>
       <c r="X27" t="n">
-        <v>44609.95</v>
+        <v>44468.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45162.54188657407</v>
+        <v>45162.63929398148</v>
       </c>
       <c r="B28" t="n">
-        <v>44600</v>
+        <v>44400</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -2548,75 +2548,75 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>575</v>
+        <v>696</v>
       </c>
       <c r="E28" t="n">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="F28" t="n">
-        <v>22.60127931769723</v>
+        <v>9.779179810725552</v>
       </c>
       <c r="G28" t="n">
-        <v>1155</v>
+        <v>1159</v>
       </c>
       <c r="H28" t="n">
-        <v>10.94</v>
+        <v>10.25</v>
       </c>
       <c r="I28" t="n">
-        <v>856.4</v>
+        <v>867.85</v>
       </c>
       <c r="J28" t="n">
-        <v>126.65</v>
+        <v>20.39999999999998</v>
       </c>
       <c r="K28" t="n">
-        <v>17.35525865022268</v>
+        <v>2.407221664994982</v>
       </c>
       <c r="L28" t="n">
-        <v>5745</v>
+        <v>4845</v>
       </c>
       <c r="M28" t="n">
-        <v>5670</v>
+        <v>5190</v>
       </c>
       <c r="N28" t="n">
-        <v>832</v>
+        <v>1299</v>
       </c>
       <c r="O28" t="n">
-        <v>367</v>
+        <v>66</v>
       </c>
       <c r="P28" t="n">
-        <v>78.9247311827957</v>
+        <v>5.35279805352798</v>
       </c>
       <c r="Q28" t="n">
-        <v>1564</v>
+        <v>2232</v>
       </c>
       <c r="R28" t="n">
-        <v>11.94</v>
+        <v>12.01</v>
       </c>
       <c r="S28" t="n">
-        <v>455</v>
+        <v>427.9</v>
       </c>
       <c r="T28" t="n">
-        <v>-93.75</v>
+        <v>-43.5</v>
       </c>
       <c r="U28" t="n">
-        <v>-17.08428246013667</v>
+        <v>-9.227831989817565</v>
       </c>
       <c r="V28" t="n">
-        <v>7365</v>
+        <v>8205</v>
       </c>
       <c r="W28" t="n">
-        <v>5535</v>
+        <v>7395</v>
       </c>
       <c r="X28" t="n">
-        <v>44609.95</v>
+        <v>44468.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45162.54188657407</v>
+        <v>45162.63929398148</v>
       </c>
       <c r="B29" t="n">
-        <v>44700</v>
+        <v>44500</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -2624,75 +2624,75 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>695</v>
+        <v>16974</v>
       </c>
       <c r="E29" t="n">
-        <v>-85</v>
+        <v>1518</v>
       </c>
       <c r="F29" t="n">
-        <v>-10.8974358974359</v>
+        <v>9.821428571428571</v>
       </c>
       <c r="G29" t="n">
-        <v>1485</v>
+        <v>22129</v>
       </c>
       <c r="H29" t="n">
-        <v>11.13</v>
+        <v>10.1</v>
       </c>
       <c r="I29" t="n">
-        <v>782</v>
+        <v>798.45</v>
       </c>
       <c r="J29" t="n">
-        <v>110.7</v>
+        <v>16.60000000000002</v>
       </c>
       <c r="K29" t="n">
-        <v>16.49039177714883</v>
+        <v>2.123169405896275</v>
       </c>
       <c r="L29" t="n">
-        <v>6945</v>
+        <v>107670</v>
       </c>
       <c r="M29" t="n">
-        <v>6480</v>
+        <v>14235</v>
       </c>
       <c r="N29" t="n">
-        <v>1408</v>
+        <v>18545</v>
       </c>
       <c r="O29" t="n">
-        <v>825</v>
+        <v>4348</v>
       </c>
       <c r="P29" t="n">
-        <v>141.5094339622642</v>
+        <v>30.626188631401</v>
       </c>
       <c r="Q29" t="n">
-        <v>2400</v>
+        <v>35648</v>
       </c>
       <c r="R29" t="n">
-        <v>11.86</v>
+        <v>12.05</v>
       </c>
       <c r="S29" t="n">
-        <v>490.45</v>
+        <v>465.05</v>
       </c>
       <c r="T29" t="n">
-        <v>-102.2500000000001</v>
+        <v>-42.44999999999999</v>
       </c>
       <c r="U29" t="n">
-        <v>-17.25156065463135</v>
+        <v>-8.364532019704431</v>
       </c>
       <c r="V29" t="n">
-        <v>6975</v>
+        <v>316980</v>
       </c>
       <c r="W29" t="n">
-        <v>6405</v>
+        <v>11460</v>
       </c>
       <c r="X29" t="n">
-        <v>44609.95</v>
+        <v>44468.9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45162.54188657407</v>
+        <v>45162.63929398148</v>
       </c>
       <c r="B30" t="n">
-        <v>44800</v>
+        <v>44600</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -2700,75 +2700,75 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1129</v>
+        <v>935</v>
       </c>
       <c r="E30" t="n">
-        <v>361</v>
+        <v>466</v>
       </c>
       <c r="F30" t="n">
-        <v>47.00520833333334</v>
+        <v>99.36034115138592</v>
       </c>
       <c r="G30" t="n">
-        <v>1573</v>
+        <v>2254</v>
       </c>
       <c r="H30" t="n">
-        <v>10.88</v>
+        <v>10.17</v>
       </c>
       <c r="I30" t="n">
-        <v>733.8</v>
+        <v>749.85</v>
       </c>
       <c r="J30" t="n">
-        <v>112.3499999999999</v>
+        <v>20.10000000000002</v>
       </c>
       <c r="K30" t="n">
-        <v>18.07868694182957</v>
+        <v>2.754367934224053</v>
       </c>
       <c r="L30" t="n">
-        <v>6900</v>
+        <v>7155</v>
       </c>
       <c r="M30" t="n">
-        <v>5955</v>
+        <v>6225</v>
       </c>
       <c r="N30" t="n">
-        <v>1331</v>
+        <v>1283</v>
       </c>
       <c r="O30" t="n">
-        <v>491</v>
+        <v>818</v>
       </c>
       <c r="P30" t="n">
-        <v>58.45238095238095</v>
+        <v>175.9139784946236</v>
       </c>
       <c r="Q30" t="n">
-        <v>2311</v>
+        <v>3536</v>
       </c>
       <c r="R30" t="n">
-        <v>11.83</v>
+        <v>11.96</v>
       </c>
       <c r="S30" t="n">
-        <v>537.35</v>
+        <v>500</v>
       </c>
       <c r="T30" t="n">
-        <v>-96.94999999999993</v>
+        <v>-48.75</v>
       </c>
       <c r="U30" t="n">
-        <v>-15.28456566293551</v>
+        <v>-8.883826879271069</v>
       </c>
       <c r="V30" t="n">
-        <v>6735</v>
+        <v>9555</v>
       </c>
       <c r="W30" t="n">
-        <v>5790</v>
+        <v>5700</v>
       </c>
       <c r="X30" t="n">
-        <v>44609.95</v>
+        <v>44468.9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45162.54188657407</v>
+        <v>45162.63929398148</v>
       </c>
       <c r="B31" t="n">
-        <v>44900</v>
+        <v>44700</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -2776,72 +2776,72 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>762</v>
+        <v>979</v>
       </c>
       <c r="E31" t="n">
-        <v>120</v>
+        <v>199</v>
       </c>
       <c r="F31" t="n">
-        <v>18.69158878504673</v>
+        <v>25.51282051282051</v>
       </c>
       <c r="G31" t="n">
-        <v>1001</v>
+        <v>2104</v>
       </c>
       <c r="H31" t="n">
-        <v>10.84</v>
+        <v>10.23</v>
       </c>
       <c r="I31" t="n">
-        <v>676.2</v>
+        <v>682</v>
       </c>
       <c r="J31" t="n">
-        <v>105.25</v>
+        <v>10.70000000000005</v>
       </c>
       <c r="K31" t="n">
-        <v>18.43418863298012</v>
+        <v>1.593922240429025</v>
       </c>
       <c r="L31" t="n">
-        <v>6690</v>
+        <v>7515</v>
       </c>
       <c r="M31" t="n">
-        <v>5550</v>
+        <v>5400</v>
       </c>
       <c r="N31" t="n">
-        <v>688</v>
+        <v>1197</v>
       </c>
       <c r="O31" t="n">
-        <v>383</v>
+        <v>614</v>
       </c>
       <c r="P31" t="n">
-        <v>125.5737704918033</v>
+        <v>105.3173241852487</v>
       </c>
       <c r="Q31" t="n">
-        <v>1466</v>
+        <v>3537</v>
       </c>
       <c r="R31" t="n">
-        <v>11.76</v>
+        <v>11.94</v>
       </c>
       <c r="S31" t="n">
-        <v>581</v>
+        <v>546.7</v>
       </c>
       <c r="T31" t="n">
-        <v>-102</v>
+        <v>-46</v>
       </c>
       <c r="U31" t="n">
-        <v>-14.93411420204978</v>
+        <v>-7.761093301839041</v>
       </c>
       <c r="V31" t="n">
-        <v>8700</v>
+        <v>10785</v>
       </c>
       <c r="W31" t="n">
-        <v>6180</v>
+        <v>7005</v>
       </c>
       <c r="X31" t="n">
-        <v>44609.95</v>
+        <v>44468.9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45162.54119212963</v>
+        <v>45162.54466435185</v>
       </c>
       <c r="B32" t="n">
         <v>44400</v>
@@ -2864,7 +2864,7 @@
         <v>647</v>
       </c>
       <c r="H32" t="n">
-        <v>11.02</v>
+        <v>10.89</v>
       </c>
       <c r="I32" t="n">
         <v>971.95</v>
@@ -2876,48 +2876,48 @@
         <v>14.69113222018998</v>
       </c>
       <c r="L32" t="n">
-        <v>4575</v>
+        <v>4320</v>
       </c>
       <c r="M32" t="n">
-        <v>4755</v>
+        <v>4530</v>
       </c>
       <c r="N32" t="n">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="O32" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P32" t="n">
-        <v>14.19302514193025</v>
+        <v>14.27412814274128</v>
       </c>
       <c r="Q32" t="n">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="R32" t="n">
-        <v>11.78</v>
+        <v>12.01</v>
       </c>
       <c r="S32" t="n">
-        <v>385</v>
+        <v>386.85</v>
       </c>
       <c r="T32" t="n">
-        <v>-86.39999999999998</v>
+        <v>-84.54999999999995</v>
       </c>
       <c r="U32" t="n">
-        <v>-18.32838353839626</v>
+        <v>-17.9359355112431</v>
       </c>
       <c r="V32" t="n">
-        <v>7575</v>
+        <v>7530</v>
       </c>
       <c r="W32" t="n">
-        <v>6090</v>
+        <v>6225</v>
       </c>
       <c r="X32" t="n">
-        <v>44589.7</v>
+        <v>44611.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45162.54119212963</v>
+        <v>45162.54466435185</v>
       </c>
       <c r="B33" t="n">
         <v>44500</v>
@@ -2928,72 +2928,72 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>14893</v>
+        <v>14945</v>
       </c>
       <c r="E33" t="n">
-        <v>-563</v>
+        <v>-511</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.6425983436853</v>
+        <v>-3.306159420289855</v>
       </c>
       <c r="G33" t="n">
-        <v>10931</v>
+        <v>11325</v>
       </c>
       <c r="H33" t="n">
-        <v>10.91</v>
+        <v>10.99</v>
       </c>
       <c r="I33" t="n">
-        <v>911.35</v>
+        <v>913</v>
       </c>
       <c r="J33" t="n">
-        <v>129.5</v>
+        <v>131.15</v>
       </c>
       <c r="K33" t="n">
-        <v>16.56327940141971</v>
+        <v>16.77431732429494</v>
       </c>
       <c r="L33" t="n">
-        <v>107400</v>
+        <v>108780</v>
       </c>
       <c r="M33" t="n">
-        <v>13605</v>
+        <v>13575</v>
       </c>
       <c r="N33" t="n">
-        <v>15737</v>
+        <v>15721</v>
       </c>
       <c r="O33" t="n">
-        <v>1540</v>
+        <v>1524</v>
       </c>
       <c r="P33" t="n">
-        <v>10.84736211875748</v>
+        <v>10.73466225258857</v>
       </c>
       <c r="Q33" t="n">
-        <v>20499</v>
+        <v>20879</v>
       </c>
       <c r="R33" t="n">
-        <v>11.98</v>
+        <v>11.9</v>
       </c>
       <c r="S33" t="n">
-        <v>417</v>
+        <v>417.5</v>
       </c>
       <c r="T33" t="n">
-        <v>-90.5</v>
+        <v>-90</v>
       </c>
       <c r="U33" t="n">
-        <v>-17.83251231527094</v>
+        <v>-17.73399014778325</v>
       </c>
       <c r="V33" t="n">
-        <v>317400</v>
+        <v>317595</v>
       </c>
       <c r="W33" t="n">
-        <v>16710</v>
+        <v>18165</v>
       </c>
       <c r="X33" t="n">
-        <v>44609.95</v>
+        <v>44611.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45162.54119212963</v>
+        <v>45162.54466435185</v>
       </c>
       <c r="B34" t="n">
         <v>44600</v>
@@ -3004,34 +3004,34 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>575</v>
+        <v>594</v>
       </c>
       <c r="E34" t="n">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="F34" t="n">
-        <v>22.60127931769723</v>
+        <v>26.65245202558635</v>
       </c>
       <c r="G34" t="n">
-        <v>1155</v>
+        <v>1166</v>
       </c>
       <c r="H34" t="n">
-        <v>10.94</v>
+        <v>11.08</v>
       </c>
       <c r="I34" t="n">
-        <v>856.4</v>
+        <v>847</v>
       </c>
       <c r="J34" t="n">
-        <v>126.65</v>
+        <v>117.25</v>
       </c>
       <c r="K34" t="n">
-        <v>17.35525865022268</v>
+        <v>16.06714628297362</v>
       </c>
       <c r="L34" t="n">
-        <v>6090</v>
+        <v>5805</v>
       </c>
       <c r="M34" t="n">
-        <v>5940</v>
+        <v>5775</v>
       </c>
       <c r="N34" t="n">
         <v>832</v>
@@ -3043,33 +3043,33 @@
         <v>78.9247311827957</v>
       </c>
       <c r="Q34" t="n">
-        <v>1564</v>
+        <v>1596</v>
       </c>
       <c r="R34" t="n">
-        <v>11.94</v>
+        <v>11.81</v>
       </c>
       <c r="S34" t="n">
-        <v>455</v>
+        <v>454.1</v>
       </c>
       <c r="T34" t="n">
-        <v>-93.75</v>
+        <v>-94.64999999999998</v>
       </c>
       <c r="U34" t="n">
-        <v>-17.08428246013667</v>
+        <v>-17.24829157175398</v>
       </c>
       <c r="V34" t="n">
-        <v>10740</v>
+        <v>10845</v>
       </c>
       <c r="W34" t="n">
-        <v>6135</v>
+        <v>7470</v>
       </c>
       <c r="X34" t="n">
-        <v>44589.7</v>
+        <v>44611.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45162.54119212963</v>
+        <v>45162.54466435185</v>
       </c>
       <c r="B35" t="n">
         <v>44700</v>
@@ -3089,63 +3089,63 @@
         <v>-10.8974358974359</v>
       </c>
       <c r="G35" t="n">
-        <v>1485</v>
+        <v>1490</v>
       </c>
       <c r="H35" t="n">
-        <v>11.13</v>
+        <v>11.02</v>
       </c>
       <c r="I35" t="n">
-        <v>782</v>
+        <v>781.55</v>
       </c>
       <c r="J35" t="n">
-        <v>110.7</v>
+        <v>110.25</v>
       </c>
       <c r="K35" t="n">
-        <v>16.49039177714883</v>
+        <v>16.42335766423358</v>
       </c>
       <c r="L35" t="n">
-        <v>6945</v>
+        <v>7455</v>
       </c>
       <c r="M35" t="n">
-        <v>6480</v>
+        <v>6960</v>
       </c>
       <c r="N35" t="n">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="O35" t="n">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="P35" t="n">
-        <v>141.5094339622642</v>
+        <v>141.6809605488851</v>
       </c>
       <c r="Q35" t="n">
-        <v>2400</v>
+        <v>2405</v>
       </c>
       <c r="R35" t="n">
-        <v>11.86</v>
+        <v>11.82</v>
       </c>
       <c r="S35" t="n">
-        <v>490.45</v>
+        <v>496.5</v>
       </c>
       <c r="T35" t="n">
-        <v>-102.2500000000001</v>
+        <v>-96.20000000000005</v>
       </c>
       <c r="U35" t="n">
-        <v>-17.25156065463135</v>
+        <v>-16.23080816601992</v>
       </c>
       <c r="V35" t="n">
-        <v>7275</v>
+        <v>7335</v>
       </c>
       <c r="W35" t="n">
-        <v>6375</v>
+        <v>6195</v>
       </c>
       <c r="X35" t="n">
-        <v>44589.7</v>
+        <v>44611.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45162.54119212963</v>
+        <v>45162.54466435185</v>
       </c>
       <c r="B36" t="n">
         <v>44800</v>
@@ -3156,72 +3156,72 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1129</v>
+        <v>1133</v>
       </c>
       <c r="E36" t="n">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="F36" t="n">
-        <v>47.00520833333334</v>
+        <v>47.52604166666666</v>
       </c>
       <c r="G36" t="n">
-        <v>1573</v>
+        <v>1584</v>
       </c>
       <c r="H36" t="n">
-        <v>10.88</v>
+        <v>10.95</v>
       </c>
       <c r="I36" t="n">
-        <v>733.8</v>
+        <v>727.05</v>
       </c>
       <c r="J36" t="n">
-        <v>112.3499999999999</v>
+        <v>105.5999999999999</v>
       </c>
       <c r="K36" t="n">
-        <v>18.07868694182957</v>
+        <v>16.99251749939656</v>
       </c>
       <c r="L36" t="n">
-        <v>6900</v>
+        <v>7890</v>
       </c>
       <c r="M36" t="n">
-        <v>5955</v>
+        <v>6960</v>
       </c>
       <c r="N36" t="n">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="O36" t="n">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="P36" t="n">
-        <v>58.45238095238095</v>
+        <v>58.09523809523809</v>
       </c>
       <c r="Q36" t="n">
-        <v>2311</v>
+        <v>2324</v>
       </c>
       <c r="R36" t="n">
-        <v>11.83</v>
+        <v>11.89</v>
       </c>
       <c r="S36" t="n">
-        <v>537.35</v>
+        <v>533</v>
       </c>
       <c r="T36" t="n">
-        <v>-96.94999999999993</v>
+        <v>-101.3</v>
       </c>
       <c r="U36" t="n">
-        <v>-15.28456566293551</v>
+        <v>-15.97036102790477</v>
       </c>
       <c r="V36" t="n">
-        <v>6660</v>
+        <v>8265</v>
       </c>
       <c r="W36" t="n">
-        <v>5925</v>
+        <v>7425</v>
       </c>
       <c r="X36" t="n">
-        <v>44589.7</v>
+        <v>44611.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45162.54119212963</v>
+        <v>45162.54466435185</v>
       </c>
       <c r="B37" t="n">
         <v>44900</v>
@@ -3232,49 +3232,49 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="E37" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F37" t="n">
-        <v>18.69158878504673</v>
+        <v>17.91277258566978</v>
       </c>
       <c r="G37" t="n">
-        <v>998</v>
+        <v>1005</v>
       </c>
       <c r="H37" t="n">
-        <v>10.84</v>
+        <v>10.89</v>
       </c>
       <c r="I37" t="n">
-        <v>677.25</v>
+        <v>667.9</v>
       </c>
       <c r="J37" t="n">
-        <v>106.3</v>
+        <v>96.94999999999993</v>
       </c>
       <c r="K37" t="n">
-        <v>18.61809265259654</v>
+        <v>16.98047114458357</v>
       </c>
       <c r="L37" t="n">
-        <v>6645</v>
+        <v>6720</v>
       </c>
       <c r="M37" t="n">
-        <v>4785</v>
+        <v>4710</v>
       </c>
       <c r="N37" t="n">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="O37" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="P37" t="n">
-        <v>125.5737704918033</v>
+        <v>126.5573770491803</v>
       </c>
       <c r="Q37" t="n">
-        <v>1466</v>
+        <v>1472</v>
       </c>
       <c r="R37" t="n">
-        <v>11.76</v>
+        <v>11.86</v>
       </c>
       <c r="S37" t="n">
         <v>581</v>
@@ -3286,12 +3286,2292 @@
         <v>-14.93411420204978</v>
       </c>
       <c r="V37" t="n">
+        <v>8460</v>
+      </c>
+      <c r="W37" t="n">
+        <v>6675</v>
+      </c>
+      <c r="X37" t="n">
+        <v>44611.4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45162.5439699074</v>
+      </c>
+      <c r="B38" t="n">
+        <v>44400</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>566</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-68</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-10.72555205047319</v>
+      </c>
+      <c r="G38" t="n">
+        <v>647</v>
+      </c>
+      <c r="H38" t="n">
+        <v>11.02</v>
+      </c>
+      <c r="I38" t="n">
+        <v>971.95</v>
+      </c>
+      <c r="J38" t="n">
+        <v>124.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>14.69113222018998</v>
+      </c>
+      <c r="L38" t="n">
+        <v>4095</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4500</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1409</v>
+      </c>
+      <c r="O38" t="n">
+        <v>176</v>
+      </c>
+      <c r="P38" t="n">
+        <v>14.27412814274128</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1486</v>
+      </c>
+      <c r="R38" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="S38" t="n">
+        <v>386.85</v>
+      </c>
+      <c r="T38" t="n">
+        <v>-84.54999999999995</v>
+      </c>
+      <c r="U38" t="n">
+        <v>-17.9359355112431</v>
+      </c>
+      <c r="V38" t="n">
+        <v>6645</v>
+      </c>
+      <c r="W38" t="n">
+        <v>6150</v>
+      </c>
+      <c r="X38" t="n">
+        <v>44619.85</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45162.5439699074</v>
+      </c>
+      <c r="B39" t="n">
+        <v>44500</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>14919</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-537</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-3.474378881987578</v>
+      </c>
+      <c r="G39" t="n">
+        <v>11226</v>
+      </c>
+      <c r="H39" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="I39" t="n">
+        <v>899.9</v>
+      </c>
+      <c r="J39" t="n">
+        <v>118.05</v>
+      </c>
+      <c r="K39" t="n">
+        <v>15.09880411843703</v>
+      </c>
+      <c r="L39" t="n">
+        <v>108510</v>
+      </c>
+      <c r="M39" t="n">
+        <v>13305</v>
+      </c>
+      <c r="N39" t="n">
+        <v>15737</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1540</v>
+      </c>
+      <c r="P39" t="n">
+        <v>10.84736211875748</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>20821</v>
+      </c>
+      <c r="R39" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="S39" t="n">
+        <v>422.75</v>
+      </c>
+      <c r="T39" t="n">
+        <v>-84.75</v>
+      </c>
+      <c r="U39" t="n">
+        <v>-16.69950738916256</v>
+      </c>
+      <c r="V39" t="n">
+        <v>317130</v>
+      </c>
+      <c r="W39" t="n">
+        <v>18180</v>
+      </c>
+      <c r="X39" t="n">
+        <v>44619.85</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45162.5439699074</v>
+      </c>
+      <c r="B40" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>584</v>
+      </c>
+      <c r="E40" t="n">
+        <v>115</v>
+      </c>
+      <c r="F40" t="n">
+        <v>24.52025586353945</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1165</v>
+      </c>
+      <c r="H40" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="I40" t="n">
+        <v>840</v>
+      </c>
+      <c r="J40" t="n">
+        <v>110.25</v>
+      </c>
+      <c r="K40" t="n">
+        <v>15.10791366906475</v>
+      </c>
+      <c r="L40" t="n">
+        <v>6030</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5685</v>
+      </c>
+      <c r="N40" t="n">
+        <v>832</v>
+      </c>
+      <c r="O40" t="n">
+        <v>367</v>
+      </c>
+      <c r="P40" t="n">
+        <v>78.9247311827957</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1570</v>
+      </c>
+      <c r="R40" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="S40" t="n">
+        <v>460</v>
+      </c>
+      <c r="T40" t="n">
+        <v>-88.75</v>
+      </c>
+      <c r="U40" t="n">
+        <v>-16.17312072892939</v>
+      </c>
+      <c r="V40" t="n">
+        <v>9765</v>
+      </c>
+      <c r="W40" t="n">
+        <v>6900</v>
+      </c>
+      <c r="X40" t="n">
+        <v>44619.85</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45162.5439699074</v>
+      </c>
+      <c r="B41" t="n">
+        <v>44700</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>695</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-85</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-10.8974358974359</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1490</v>
+      </c>
+      <c r="H41" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="I41" t="n">
+        <v>781.55</v>
+      </c>
+      <c r="J41" t="n">
+        <v>110.25</v>
+      </c>
+      <c r="K41" t="n">
+        <v>16.42335766423358</v>
+      </c>
+      <c r="L41" t="n">
+        <v>7530</v>
+      </c>
+      <c r="M41" t="n">
+        <v>6705</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1408</v>
+      </c>
+      <c r="O41" t="n">
+        <v>825</v>
+      </c>
+      <c r="P41" t="n">
+        <v>141.5094339622642</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2405</v>
+      </c>
+      <c r="R41" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="S41" t="n">
+        <v>496.5</v>
+      </c>
+      <c r="T41" t="n">
+        <v>-96.20000000000005</v>
+      </c>
+      <c r="U41" t="n">
+        <v>-16.23080816601992</v>
+      </c>
+      <c r="V41" t="n">
+        <v>6690</v>
+      </c>
+      <c r="W41" t="n">
+        <v>6510</v>
+      </c>
+      <c r="X41" t="n">
+        <v>44619.85</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45162.5439699074</v>
+      </c>
+      <c r="B42" t="n">
+        <v>44800</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1129</v>
+      </c>
+      <c r="E42" t="n">
+        <v>361</v>
+      </c>
+      <c r="F42" t="n">
+        <v>47.00520833333334</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1579</v>
+      </c>
+      <c r="H42" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="I42" t="n">
+        <v>721</v>
+      </c>
+      <c r="J42" t="n">
+        <v>99.54999999999995</v>
+      </c>
+      <c r="K42" t="n">
+        <v>16.01898785099364</v>
+      </c>
+      <c r="L42" t="n">
+        <v>6810</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5820</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1327</v>
+      </c>
+      <c r="O42" t="n">
+        <v>487</v>
+      </c>
+      <c r="P42" t="n">
+        <v>57.97619047619047</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2319</v>
+      </c>
+      <c r="R42" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="S42" t="n">
+        <v>535</v>
+      </c>
+      <c r="T42" t="n">
+        <v>-99.29999999999995</v>
+      </c>
+      <c r="U42" t="n">
+        <v>-15.6550528141258</v>
+      </c>
+      <c r="V42" t="n">
+        <v>8235</v>
+      </c>
+      <c r="W42" t="n">
+        <v>7035</v>
+      </c>
+      <c r="X42" t="n">
+        <v>44619.85</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45162.5439699074</v>
+      </c>
+      <c r="B43" t="n">
+        <v>44900</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>765</v>
+      </c>
+      <c r="E43" t="n">
+        <v>123</v>
+      </c>
+      <c r="F43" t="n">
+        <v>19.1588785046729</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1004</v>
+      </c>
+      <c r="H43" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="I43" t="n">
+        <v>673.8</v>
+      </c>
+      <c r="J43" t="n">
+        <v>102.8499999999999</v>
+      </c>
+      <c r="K43" t="n">
+        <v>18.01383658814255</v>
+      </c>
+      <c r="L43" t="n">
+        <v>5520</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5520</v>
+      </c>
+      <c r="N43" t="n">
+        <v>688</v>
+      </c>
+      <c r="O43" t="n">
+        <v>383</v>
+      </c>
+      <c r="P43" t="n">
+        <v>125.5737704918033</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1472</v>
+      </c>
+      <c r="R43" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="S43" t="n">
+        <v>581</v>
+      </c>
+      <c r="T43" t="n">
+        <v>-102</v>
+      </c>
+      <c r="U43" t="n">
+        <v>-14.93411420204978</v>
+      </c>
+      <c r="V43" t="n">
+        <v>8745</v>
+      </c>
+      <c r="W43" t="n">
+        <v>6375</v>
+      </c>
+      <c r="X43" t="n">
+        <v>44619.85</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45162.54327546297</v>
+      </c>
+      <c r="B44" t="n">
+        <v>44400</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>566</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-68</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-10.72555205047319</v>
+      </c>
+      <c r="G44" t="n">
+        <v>647</v>
+      </c>
+      <c r="H44" t="n">
+        <v>11.02</v>
+      </c>
+      <c r="I44" t="n">
+        <v>971.95</v>
+      </c>
+      <c r="J44" t="n">
+        <v>124.5</v>
+      </c>
+      <c r="K44" t="n">
+        <v>14.69113222018998</v>
+      </c>
+      <c r="L44" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5100</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1409</v>
+      </c>
+      <c r="O44" t="n">
+        <v>176</v>
+      </c>
+      <c r="P44" t="n">
+        <v>14.27412814274128</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1486</v>
+      </c>
+      <c r="R44" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="S44" t="n">
+        <v>386.85</v>
+      </c>
+      <c r="T44" t="n">
+        <v>-84.54999999999995</v>
+      </c>
+      <c r="U44" t="n">
+        <v>-17.9359355112431</v>
+      </c>
+      <c r="V44" t="n">
+        <v>7230</v>
+      </c>
+      <c r="W44" t="n">
+        <v>6630</v>
+      </c>
+      <c r="X44" t="n">
+        <v>44619.85</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45162.54327546297</v>
+      </c>
+      <c r="B45" t="n">
+        <v>44500</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>14919</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-537</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-3.474378881987578</v>
+      </c>
+      <c r="G45" t="n">
+        <v>11056</v>
+      </c>
+      <c r="H45" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="I45" t="n">
+        <v>915.6</v>
+      </c>
+      <c r="J45" t="n">
+        <v>133.75</v>
+      </c>
+      <c r="K45" t="n">
+        <v>17.10686193003773</v>
+      </c>
+      <c r="L45" t="n">
+        <v>108135</v>
+      </c>
+      <c r="M45" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N45" t="n">
+        <v>15737</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1540</v>
+      </c>
+      <c r="P45" t="n">
+        <v>10.84736211875748</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>20677</v>
+      </c>
+      <c r="R45" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="S45" t="n">
+        <v>420</v>
+      </c>
+      <c r="T45" t="n">
+        <v>-87.5</v>
+      </c>
+      <c r="U45" t="n">
+        <v>-17.24137931034483</v>
+      </c>
+      <c r="V45" t="n">
+        <v>317385</v>
+      </c>
+      <c r="W45" t="n">
+        <v>17235</v>
+      </c>
+      <c r="X45" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45162.54327546297</v>
+      </c>
+      <c r="B46" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>575</v>
+      </c>
+      <c r="E46" t="n">
+        <v>106</v>
+      </c>
+      <c r="F46" t="n">
+        <v>22.60127931769723</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1162</v>
+      </c>
+      <c r="H46" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="I46" t="n">
+        <v>860</v>
+      </c>
+      <c r="J46" t="n">
+        <v>130.25</v>
+      </c>
+      <c r="K46" t="n">
+        <v>17.84857828023296</v>
+      </c>
+      <c r="L46" t="n">
+        <v>6030</v>
+      </c>
+      <c r="M46" t="n">
+        <v>6300</v>
+      </c>
+      <c r="N46" t="n">
+        <v>832</v>
+      </c>
+      <c r="O46" t="n">
+        <v>367</v>
+      </c>
+      <c r="P46" t="n">
+        <v>78.9247311827957</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1569</v>
+      </c>
+      <c r="R46" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="S46" t="n">
+        <v>454.15</v>
+      </c>
+      <c r="T46" t="n">
+        <v>-94.60000000000002</v>
+      </c>
+      <c r="U46" t="n">
+        <v>-17.23917995444192</v>
+      </c>
+      <c r="V46" t="n">
+        <v>11295</v>
+      </c>
+      <c r="W46" t="n">
+        <v>7380</v>
+      </c>
+      <c r="X46" t="n">
+        <v>44619.85</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45162.54327546297</v>
+      </c>
+      <c r="B47" t="n">
+        <v>44700</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>695</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-85</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-10.8974358974359</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1490</v>
+      </c>
+      <c r="H47" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="I47" t="n">
+        <v>781.55</v>
+      </c>
+      <c r="J47" t="n">
+        <v>110.25</v>
+      </c>
+      <c r="K47" t="n">
+        <v>16.42335766423358</v>
+      </c>
+      <c r="L47" t="n">
+        <v>7290</v>
+      </c>
+      <c r="M47" t="n">
+        <v>6900</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1408</v>
+      </c>
+      <c r="O47" t="n">
+        <v>825</v>
+      </c>
+      <c r="P47" t="n">
+        <v>141.5094339622642</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2400</v>
+      </c>
+      <c r="R47" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="S47" t="n">
+        <v>490.45</v>
+      </c>
+      <c r="T47" t="n">
+        <v>-102.2500000000001</v>
+      </c>
+      <c r="U47" t="n">
+        <v>-17.25156065463135</v>
+      </c>
+      <c r="V47" t="n">
+        <v>7710</v>
+      </c>
+      <c r="W47" t="n">
+        <v>6180</v>
+      </c>
+      <c r="X47" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45162.54327546297</v>
+      </c>
+      <c r="B48" t="n">
+        <v>44800</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1129</v>
+      </c>
+      <c r="E48" t="n">
+        <v>361</v>
+      </c>
+      <c r="F48" t="n">
+        <v>47.00520833333334</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1573</v>
+      </c>
+      <c r="H48" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="I48" t="n">
+        <v>733.8</v>
+      </c>
+      <c r="J48" t="n">
+        <v>112.3499999999999</v>
+      </c>
+      <c r="K48" t="n">
+        <v>18.07868694182957</v>
+      </c>
+      <c r="L48" t="n">
+        <v>6555</v>
+      </c>
+      <c r="M48" t="n">
+        <v>6240</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1331</v>
+      </c>
+      <c r="O48" t="n">
+        <v>491</v>
+      </c>
+      <c r="P48" t="n">
+        <v>58.45238095238095</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2314</v>
+      </c>
+      <c r="R48" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="S48" t="n">
+        <v>532.9</v>
+      </c>
+      <c r="T48" t="n">
+        <v>-101.4</v>
+      </c>
+      <c r="U48" t="n">
+        <v>-15.98612643859372</v>
+      </c>
+      <c r="V48" t="n">
+        <v>7245</v>
+      </c>
+      <c r="W48" t="n">
+        <v>5700</v>
+      </c>
+      <c r="X48" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45162.54327546297</v>
+      </c>
+      <c r="B49" t="n">
+        <v>44900</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>765</v>
+      </c>
+      <c r="E49" t="n">
+        <v>123</v>
+      </c>
+      <c r="F49" t="n">
+        <v>19.1588785046729</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1003</v>
+      </c>
+      <c r="H49" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="I49" t="n">
+        <v>676.2</v>
+      </c>
+      <c r="J49" t="n">
+        <v>105.25</v>
+      </c>
+      <c r="K49" t="n">
+        <v>18.43418863298012</v>
+      </c>
+      <c r="L49" t="n">
+        <v>6195</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5970</v>
+      </c>
+      <c r="N49" t="n">
+        <v>688</v>
+      </c>
+      <c r="O49" t="n">
+        <v>383</v>
+      </c>
+      <c r="P49" t="n">
+        <v>125.5737704918033</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1466</v>
+      </c>
+      <c r="R49" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="S49" t="n">
+        <v>581</v>
+      </c>
+      <c r="T49" t="n">
+        <v>-102</v>
+      </c>
+      <c r="U49" t="n">
+        <v>-14.93411420204978</v>
+      </c>
+      <c r="V49" t="n">
+        <v>8895</v>
+      </c>
+      <c r="W49" t="n">
+        <v>6435</v>
+      </c>
+      <c r="X49" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45162.54256944444</v>
+      </c>
+      <c r="B50" t="n">
+        <v>44400</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>566</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-68</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-10.72555205047319</v>
+      </c>
+      <c r="G50" t="n">
+        <v>647</v>
+      </c>
+      <c r="H50" t="n">
+        <v>11.02</v>
+      </c>
+      <c r="I50" t="n">
+        <v>971.95</v>
+      </c>
+      <c r="J50" t="n">
+        <v>124.5</v>
+      </c>
+      <c r="K50" t="n">
+        <v>14.69113222018998</v>
+      </c>
+      <c r="L50" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5100</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1409</v>
+      </c>
+      <c r="O50" t="n">
+        <v>176</v>
+      </c>
+      <c r="P50" t="n">
+        <v>14.27412814274128</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1486</v>
+      </c>
+      <c r="R50" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="S50" t="n">
+        <v>386.85</v>
+      </c>
+      <c r="T50" t="n">
+        <v>-84.54999999999995</v>
+      </c>
+      <c r="U50" t="n">
+        <v>-17.9359355112431</v>
+      </c>
+      <c r="V50" t="n">
+        <v>7230</v>
+      </c>
+      <c r="W50" t="n">
+        <v>6630</v>
+      </c>
+      <c r="X50" t="n">
+        <v>44619.85</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45162.54256944444</v>
+      </c>
+      <c r="B51" t="n">
+        <v>44500</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>14919</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-537</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-3.474378881987578</v>
+      </c>
+      <c r="G51" t="n">
+        <v>11056</v>
+      </c>
+      <c r="H51" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="I51" t="n">
+        <v>915.6</v>
+      </c>
+      <c r="J51" t="n">
+        <v>133.75</v>
+      </c>
+      <c r="K51" t="n">
+        <v>17.10686193003773</v>
+      </c>
+      <c r="L51" t="n">
+        <v>108135</v>
+      </c>
+      <c r="M51" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N51" t="n">
+        <v>15737</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1540</v>
+      </c>
+      <c r="P51" t="n">
+        <v>10.84736211875748</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>20677</v>
+      </c>
+      <c r="R51" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="S51" t="n">
+        <v>420</v>
+      </c>
+      <c r="T51" t="n">
+        <v>-87.5</v>
+      </c>
+      <c r="U51" t="n">
+        <v>-17.24137931034483</v>
+      </c>
+      <c r="V51" t="n">
+        <v>317385</v>
+      </c>
+      <c r="W51" t="n">
+        <v>17235</v>
+      </c>
+      <c r="X51" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45162.54256944444</v>
+      </c>
+      <c r="B52" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>575</v>
+      </c>
+      <c r="E52" t="n">
+        <v>106</v>
+      </c>
+      <c r="F52" t="n">
+        <v>22.60127931769723</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1162</v>
+      </c>
+      <c r="H52" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="I52" t="n">
+        <v>860</v>
+      </c>
+      <c r="J52" t="n">
+        <v>130.25</v>
+      </c>
+      <c r="K52" t="n">
+        <v>17.84857828023296</v>
+      </c>
+      <c r="L52" t="n">
+        <v>6030</v>
+      </c>
+      <c r="M52" t="n">
+        <v>6300</v>
+      </c>
+      <c r="N52" t="n">
+        <v>832</v>
+      </c>
+      <c r="O52" t="n">
+        <v>367</v>
+      </c>
+      <c r="P52" t="n">
+        <v>78.9247311827957</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1569</v>
+      </c>
+      <c r="R52" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="S52" t="n">
+        <v>454.15</v>
+      </c>
+      <c r="T52" t="n">
+        <v>-94.60000000000002</v>
+      </c>
+      <c r="U52" t="n">
+        <v>-17.23917995444192</v>
+      </c>
+      <c r="V52" t="n">
+        <v>11295</v>
+      </c>
+      <c r="W52" t="n">
+        <v>7380</v>
+      </c>
+      <c r="X52" t="n">
+        <v>44619.85</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45162.54256944444</v>
+      </c>
+      <c r="B53" t="n">
+        <v>44700</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>695</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-85</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-10.8974358974359</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1490</v>
+      </c>
+      <c r="H53" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="I53" t="n">
+        <v>781.55</v>
+      </c>
+      <c r="J53" t="n">
+        <v>110.25</v>
+      </c>
+      <c r="K53" t="n">
+        <v>16.42335766423358</v>
+      </c>
+      <c r="L53" t="n">
+        <v>7290</v>
+      </c>
+      <c r="M53" t="n">
+        <v>6900</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1408</v>
+      </c>
+      <c r="O53" t="n">
+        <v>825</v>
+      </c>
+      <c r="P53" t="n">
+        <v>141.5094339622642</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2400</v>
+      </c>
+      <c r="R53" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="S53" t="n">
+        <v>490.45</v>
+      </c>
+      <c r="T53" t="n">
+        <v>-102.2500000000001</v>
+      </c>
+      <c r="U53" t="n">
+        <v>-17.25156065463135</v>
+      </c>
+      <c r="V53" t="n">
+        <v>7710</v>
+      </c>
+      <c r="W53" t="n">
+        <v>6180</v>
+      </c>
+      <c r="X53" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45162.54256944444</v>
+      </c>
+      <c r="B54" t="n">
+        <v>44800</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>1129</v>
+      </c>
+      <c r="E54" t="n">
+        <v>361</v>
+      </c>
+      <c r="F54" t="n">
+        <v>47.00520833333334</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1573</v>
+      </c>
+      <c r="H54" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="I54" t="n">
+        <v>733.8</v>
+      </c>
+      <c r="J54" t="n">
+        <v>112.3499999999999</v>
+      </c>
+      <c r="K54" t="n">
+        <v>18.07868694182957</v>
+      </c>
+      <c r="L54" t="n">
+        <v>6555</v>
+      </c>
+      <c r="M54" t="n">
+        <v>6240</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1331</v>
+      </c>
+      <c r="O54" t="n">
+        <v>491</v>
+      </c>
+      <c r="P54" t="n">
+        <v>58.45238095238095</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2314</v>
+      </c>
+      <c r="R54" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="S54" t="n">
+        <v>532.9</v>
+      </c>
+      <c r="T54" t="n">
+        <v>-101.4</v>
+      </c>
+      <c r="U54" t="n">
+        <v>-15.98612643859372</v>
+      </c>
+      <c r="V54" t="n">
+        <v>7245</v>
+      </c>
+      <c r="W54" t="n">
+        <v>5700</v>
+      </c>
+      <c r="X54" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45162.54256944444</v>
+      </c>
+      <c r="B55" t="n">
+        <v>44900</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>765</v>
+      </c>
+      <c r="E55" t="n">
+        <v>123</v>
+      </c>
+      <c r="F55" t="n">
+        <v>19.1588785046729</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1003</v>
+      </c>
+      <c r="H55" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="I55" t="n">
+        <v>676.2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>105.25</v>
+      </c>
+      <c r="K55" t="n">
+        <v>18.43418863298012</v>
+      </c>
+      <c r="L55" t="n">
+        <v>6195</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5970</v>
+      </c>
+      <c r="N55" t="n">
+        <v>688</v>
+      </c>
+      <c r="O55" t="n">
+        <v>383</v>
+      </c>
+      <c r="P55" t="n">
+        <v>125.5737704918033</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1466</v>
+      </c>
+      <c r="R55" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="S55" t="n">
+        <v>581</v>
+      </c>
+      <c r="T55" t="n">
+        <v>-102</v>
+      </c>
+      <c r="U55" t="n">
+        <v>-14.93411420204978</v>
+      </c>
+      <c r="V55" t="n">
+        <v>8895</v>
+      </c>
+      <c r="W55" t="n">
+        <v>6435</v>
+      </c>
+      <c r="X55" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45162.54188657407</v>
+      </c>
+      <c r="B56" t="n">
+        <v>44400</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>566</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-68</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-10.72555205047319</v>
+      </c>
+      <c r="G56" t="n">
+        <v>647</v>
+      </c>
+      <c r="H56" t="n">
+        <v>11.02</v>
+      </c>
+      <c r="I56" t="n">
+        <v>971.95</v>
+      </c>
+      <c r="J56" t="n">
+        <v>124.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>14.69113222018998</v>
+      </c>
+      <c r="L56" t="n">
+        <v>4545</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4530</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1408</v>
+      </c>
+      <c r="O56" t="n">
+        <v>175</v>
+      </c>
+      <c r="P56" t="n">
+        <v>14.19302514193025</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1484</v>
+      </c>
+      <c r="R56" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="S56" t="n">
+        <v>385</v>
+      </c>
+      <c r="T56" t="n">
+        <v>-86.39999999999998</v>
+      </c>
+      <c r="U56" t="n">
+        <v>-18.32838353839626</v>
+      </c>
+      <c r="V56" t="n">
+        <v>7095</v>
+      </c>
+      <c r="W56" t="n">
+        <v>6180</v>
+      </c>
+      <c r="X56" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45162.54188657407</v>
+      </c>
+      <c r="B57" t="n">
+        <v>44500</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>14919</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-537</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-3.474378881987578</v>
+      </c>
+      <c r="G57" t="n">
+        <v>10943</v>
+      </c>
+      <c r="H57" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="I57" t="n">
+        <v>915</v>
+      </c>
+      <c r="J57" t="n">
+        <v>133.15</v>
+      </c>
+      <c r="K57" t="n">
+        <v>17.03012086717401</v>
+      </c>
+      <c r="L57" t="n">
+        <v>108015</v>
+      </c>
+      <c r="M57" t="n">
+        <v>13080</v>
+      </c>
+      <c r="N57" t="n">
+        <v>15737</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1540</v>
+      </c>
+      <c r="P57" t="n">
+        <v>10.84736211875748</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>20540</v>
+      </c>
+      <c r="R57" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="S57" t="n">
+        <v>415.6</v>
+      </c>
+      <c r="T57" t="n">
+        <v>-91.89999999999998</v>
+      </c>
+      <c r="U57" t="n">
+        <v>-18.10837438423645</v>
+      </c>
+      <c r="V57" t="n">
+        <v>317130</v>
+      </c>
+      <c r="W57" t="n">
+        <v>18000</v>
+      </c>
+      <c r="X57" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45162.54188657407</v>
+      </c>
+      <c r="B58" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>575</v>
+      </c>
+      <c r="E58" t="n">
+        <v>106</v>
+      </c>
+      <c r="F58" t="n">
+        <v>22.60127931769723</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1155</v>
+      </c>
+      <c r="H58" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="I58" t="n">
+        <v>856.4</v>
+      </c>
+      <c r="J58" t="n">
+        <v>126.65</v>
+      </c>
+      <c r="K58" t="n">
+        <v>17.35525865022268</v>
+      </c>
+      <c r="L58" t="n">
+        <v>5745</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5670</v>
+      </c>
+      <c r="N58" t="n">
+        <v>832</v>
+      </c>
+      <c r="O58" t="n">
+        <v>367</v>
+      </c>
+      <c r="P58" t="n">
+        <v>78.9247311827957</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1564</v>
+      </c>
+      <c r="R58" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="S58" t="n">
+        <v>455</v>
+      </c>
+      <c r="T58" t="n">
+        <v>-93.75</v>
+      </c>
+      <c r="U58" t="n">
+        <v>-17.08428246013667</v>
+      </c>
+      <c r="V58" t="n">
+        <v>7365</v>
+      </c>
+      <c r="W58" t="n">
+        <v>5535</v>
+      </c>
+      <c r="X58" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45162.54188657407</v>
+      </c>
+      <c r="B59" t="n">
+        <v>44700</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>695</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-85</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-10.8974358974359</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1485</v>
+      </c>
+      <c r="H59" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="I59" t="n">
+        <v>782</v>
+      </c>
+      <c r="J59" t="n">
+        <v>110.7</v>
+      </c>
+      <c r="K59" t="n">
+        <v>16.49039177714883</v>
+      </c>
+      <c r="L59" t="n">
+        <v>6945</v>
+      </c>
+      <c r="M59" t="n">
+        <v>6480</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1408</v>
+      </c>
+      <c r="O59" t="n">
+        <v>825</v>
+      </c>
+      <c r="P59" t="n">
+        <v>141.5094339622642</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2400</v>
+      </c>
+      <c r="R59" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="S59" t="n">
+        <v>490.45</v>
+      </c>
+      <c r="T59" t="n">
+        <v>-102.2500000000001</v>
+      </c>
+      <c r="U59" t="n">
+        <v>-17.25156065463135</v>
+      </c>
+      <c r="V59" t="n">
+        <v>6975</v>
+      </c>
+      <c r="W59" t="n">
+        <v>6405</v>
+      </c>
+      <c r="X59" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45162.54188657407</v>
+      </c>
+      <c r="B60" t="n">
+        <v>44800</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>1129</v>
+      </c>
+      <c r="E60" t="n">
+        <v>361</v>
+      </c>
+      <c r="F60" t="n">
+        <v>47.00520833333334</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1573</v>
+      </c>
+      <c r="H60" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="I60" t="n">
+        <v>733.8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>112.3499999999999</v>
+      </c>
+      <c r="K60" t="n">
+        <v>18.07868694182957</v>
+      </c>
+      <c r="L60" t="n">
+        <v>6900</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5955</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1331</v>
+      </c>
+      <c r="O60" t="n">
+        <v>491</v>
+      </c>
+      <c r="P60" t="n">
+        <v>58.45238095238095</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2311</v>
+      </c>
+      <c r="R60" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="S60" t="n">
+        <v>537.35</v>
+      </c>
+      <c r="T60" t="n">
+        <v>-96.94999999999993</v>
+      </c>
+      <c r="U60" t="n">
+        <v>-15.28456566293551</v>
+      </c>
+      <c r="V60" t="n">
+        <v>6735</v>
+      </c>
+      <c r="W60" t="n">
+        <v>5790</v>
+      </c>
+      <c r="X60" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45162.54188657407</v>
+      </c>
+      <c r="B61" t="n">
+        <v>44900</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>762</v>
+      </c>
+      <c r="E61" t="n">
+        <v>120</v>
+      </c>
+      <c r="F61" t="n">
+        <v>18.69158878504673</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1001</v>
+      </c>
+      <c r="H61" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="I61" t="n">
+        <v>676.2</v>
+      </c>
+      <c r="J61" t="n">
+        <v>105.25</v>
+      </c>
+      <c r="K61" t="n">
+        <v>18.43418863298012</v>
+      </c>
+      <c r="L61" t="n">
+        <v>6690</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5550</v>
+      </c>
+      <c r="N61" t="n">
+        <v>688</v>
+      </c>
+      <c r="O61" t="n">
+        <v>383</v>
+      </c>
+      <c r="P61" t="n">
+        <v>125.5737704918033</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1466</v>
+      </c>
+      <c r="R61" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="S61" t="n">
+        <v>581</v>
+      </c>
+      <c r="T61" t="n">
+        <v>-102</v>
+      </c>
+      <c r="U61" t="n">
+        <v>-14.93411420204978</v>
+      </c>
+      <c r="V61" t="n">
+        <v>8700</v>
+      </c>
+      <c r="W61" t="n">
+        <v>6180</v>
+      </c>
+      <c r="X61" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45162.54119212963</v>
+      </c>
+      <c r="B62" t="n">
+        <v>44400</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>566</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-68</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-10.72555205047319</v>
+      </c>
+      <c r="G62" t="n">
+        <v>647</v>
+      </c>
+      <c r="H62" t="n">
+        <v>11.02</v>
+      </c>
+      <c r="I62" t="n">
+        <v>971.95</v>
+      </c>
+      <c r="J62" t="n">
+        <v>124.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>14.69113222018998</v>
+      </c>
+      <c r="L62" t="n">
+        <v>4575</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4755</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1408</v>
+      </c>
+      <c r="O62" t="n">
+        <v>175</v>
+      </c>
+      <c r="P62" t="n">
+        <v>14.19302514193025</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1484</v>
+      </c>
+      <c r="R62" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="S62" t="n">
+        <v>385</v>
+      </c>
+      <c r="T62" t="n">
+        <v>-86.39999999999998</v>
+      </c>
+      <c r="U62" t="n">
+        <v>-18.32838353839626</v>
+      </c>
+      <c r="V62" t="n">
+        <v>7575</v>
+      </c>
+      <c r="W62" t="n">
+        <v>6090</v>
+      </c>
+      <c r="X62" t="n">
+        <v>44589.7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45162.54119212963</v>
+      </c>
+      <c r="B63" t="n">
+        <v>44500</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>14893</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-563</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-3.6425983436853</v>
+      </c>
+      <c r="G63" t="n">
+        <v>10931</v>
+      </c>
+      <c r="H63" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="I63" t="n">
+        <v>911.35</v>
+      </c>
+      <c r="J63" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="K63" t="n">
+        <v>16.56327940141971</v>
+      </c>
+      <c r="L63" t="n">
+        <v>107400</v>
+      </c>
+      <c r="M63" t="n">
+        <v>13605</v>
+      </c>
+      <c r="N63" t="n">
+        <v>15737</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1540</v>
+      </c>
+      <c r="P63" t="n">
+        <v>10.84736211875748</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>20499</v>
+      </c>
+      <c r="R63" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="S63" t="n">
+        <v>417</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-90.5</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-17.83251231527094</v>
+      </c>
+      <c r="V63" t="n">
+        <v>317400</v>
+      </c>
+      <c r="W63" t="n">
+        <v>16710</v>
+      </c>
+      <c r="X63" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45162.54119212963</v>
+      </c>
+      <c r="B64" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>575</v>
+      </c>
+      <c r="E64" t="n">
+        <v>106</v>
+      </c>
+      <c r="F64" t="n">
+        <v>22.60127931769723</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1155</v>
+      </c>
+      <c r="H64" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="I64" t="n">
+        <v>856.4</v>
+      </c>
+      <c r="J64" t="n">
+        <v>126.65</v>
+      </c>
+      <c r="K64" t="n">
+        <v>17.35525865022268</v>
+      </c>
+      <c r="L64" t="n">
+        <v>6090</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5940</v>
+      </c>
+      <c r="N64" t="n">
+        <v>832</v>
+      </c>
+      <c r="O64" t="n">
+        <v>367</v>
+      </c>
+      <c r="P64" t="n">
+        <v>78.9247311827957</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1564</v>
+      </c>
+      <c r="R64" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="S64" t="n">
+        <v>455</v>
+      </c>
+      <c r="T64" t="n">
+        <v>-93.75</v>
+      </c>
+      <c r="U64" t="n">
+        <v>-17.08428246013667</v>
+      </c>
+      <c r="V64" t="n">
+        <v>10740</v>
+      </c>
+      <c r="W64" t="n">
+        <v>6135</v>
+      </c>
+      <c r="X64" t="n">
+        <v>44589.7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45162.54119212963</v>
+      </c>
+      <c r="B65" t="n">
+        <v>44700</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>695</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-85</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-10.8974358974359</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1485</v>
+      </c>
+      <c r="H65" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="I65" t="n">
+        <v>782</v>
+      </c>
+      <c r="J65" t="n">
+        <v>110.7</v>
+      </c>
+      <c r="K65" t="n">
+        <v>16.49039177714883</v>
+      </c>
+      <c r="L65" t="n">
+        <v>6945</v>
+      </c>
+      <c r="M65" t="n">
+        <v>6480</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1408</v>
+      </c>
+      <c r="O65" t="n">
+        <v>825</v>
+      </c>
+      <c r="P65" t="n">
+        <v>141.5094339622642</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2400</v>
+      </c>
+      <c r="R65" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="S65" t="n">
+        <v>490.45</v>
+      </c>
+      <c r="T65" t="n">
+        <v>-102.2500000000001</v>
+      </c>
+      <c r="U65" t="n">
+        <v>-17.25156065463135</v>
+      </c>
+      <c r="V65" t="n">
+        <v>7275</v>
+      </c>
+      <c r="W65" t="n">
+        <v>6375</v>
+      </c>
+      <c r="X65" t="n">
+        <v>44589.7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45162.54119212963</v>
+      </c>
+      <c r="B66" t="n">
+        <v>44800</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>1129</v>
+      </c>
+      <c r="E66" t="n">
+        <v>361</v>
+      </c>
+      <c r="F66" t="n">
+        <v>47.00520833333334</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1573</v>
+      </c>
+      <c r="H66" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="I66" t="n">
+        <v>733.8</v>
+      </c>
+      <c r="J66" t="n">
+        <v>112.3499999999999</v>
+      </c>
+      <c r="K66" t="n">
+        <v>18.07868694182957</v>
+      </c>
+      <c r="L66" t="n">
+        <v>6900</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5955</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1331</v>
+      </c>
+      <c r="O66" t="n">
+        <v>491</v>
+      </c>
+      <c r="P66" t="n">
+        <v>58.45238095238095</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2311</v>
+      </c>
+      <c r="R66" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="S66" t="n">
+        <v>537.35</v>
+      </c>
+      <c r="T66" t="n">
+        <v>-96.94999999999993</v>
+      </c>
+      <c r="U66" t="n">
+        <v>-15.28456566293551</v>
+      </c>
+      <c r="V66" t="n">
+        <v>6660</v>
+      </c>
+      <c r="W66" t="n">
+        <v>5925</v>
+      </c>
+      <c r="X66" t="n">
+        <v>44589.7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45162.54119212963</v>
+      </c>
+      <c r="B67" t="n">
+        <v>44900</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>762</v>
+      </c>
+      <c r="E67" t="n">
+        <v>120</v>
+      </c>
+      <c r="F67" t="n">
+        <v>18.69158878504673</v>
+      </c>
+      <c r="G67" t="n">
+        <v>998</v>
+      </c>
+      <c r="H67" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="I67" t="n">
+        <v>677.25</v>
+      </c>
+      <c r="J67" t="n">
+        <v>106.3</v>
+      </c>
+      <c r="K67" t="n">
+        <v>18.61809265259654</v>
+      </c>
+      <c r="L67" t="n">
+        <v>6645</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4785</v>
+      </c>
+      <c r="N67" t="n">
+        <v>688</v>
+      </c>
+      <c r="O67" t="n">
+        <v>383</v>
+      </c>
+      <c r="P67" t="n">
+        <v>125.5737704918033</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1466</v>
+      </c>
+      <c r="R67" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="S67" t="n">
+        <v>581</v>
+      </c>
+      <c r="T67" t="n">
+        <v>-102</v>
+      </c>
+      <c r="U67" t="n">
+        <v>-14.93411420204978</v>
+      </c>
+      <c r="V67" t="n">
         <v>7785</v>
       </c>
-      <c r="W37" t="n">
+      <c r="W67" t="n">
         <v>6630</v>
       </c>
-      <c r="X37" t="n">
+      <c r="X67" t="n">
         <v>44589.7</v>
       </c>
     </row>
